--- a/reports/contracts/files/result.xlsx
+++ b/reports/contracts/files/result.xlsx
@@ -3276,8 +3276,8 @@
   </sheetPr>
   <dimension ref="A2:AH485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -3293,8 +3293,25 @@
     <col customWidth="1" max="10" min="9" style="4" width="33.5703125"/>
     <col customWidth="1" max="11" min="11" style="4" width="20.5703125"/>
     <col customWidth="1" max="12" min="12" style="4" width="16.28515625"/>
-    <col customWidth="1" max="16" min="13" style="4" width="14"/>
-    <col customWidth="1" max="16384" min="17" style="4" width="9.140625"/>
+    <col customWidth="1" max="16" min="13" style="4" width="14.7109375"/>
+    <col customWidth="1" max="16384" min="17" style="4" width="14"/>
+    <col customWidth="1" max="18" min="18" width="14"/>
+    <col customWidth="1" max="19" min="19" width="14"/>
+    <col customWidth="1" max="20" min="20" width="14"/>
+    <col customWidth="1" max="21" min="21" width="14"/>
+    <col customWidth="1" max="22" min="22" width="14"/>
+    <col customWidth="1" max="23" min="23" width="14"/>
+    <col customWidth="1" max="24" min="24" width="14"/>
+    <col customWidth="1" max="25" min="25" width="14"/>
+    <col customWidth="1" max="26" min="26" width="14"/>
+    <col customWidth="1" max="27" min="27" width="14"/>
+    <col customWidth="1" max="28" min="28" width="14"/>
+    <col customWidth="1" max="29" min="29" width="14"/>
+    <col customWidth="1" max="30" min="30" width="14"/>
+    <col customWidth="1" max="31" min="31" width="14"/>
+    <col customWidth="1" max="32" min="32" width="14"/>
+    <col customWidth="1" max="33" min="33" width="14"/>
+    <col customWidth="1" max="34" min="34" width="14"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="56.25" r="2" s="4">

--- a/reports/contracts/files/result.xlsx
+++ b/reports/contracts/files/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11550" windowWidth="25200" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11556" windowWidth="25200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры" sheetId="1" state="visible" r:id="rId1"/>
@@ -3968,46 +3968,37 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
-      <selection activeCell="D2" pane="bottomLeft" sqref="D2"/>
+      <selection activeCell="C4" pane="bottomLeft" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="11.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="26.42578125"/>
+    <col customWidth="1" max="1" min="1" style="9" width="26.44140625"/>
     <col customWidth="1" max="2" min="2" style="5" width="35"/>
     <col customWidth="1" max="3" min="3" style="9" width="19"/>
-    <col customWidth="1" max="4" min="4" style="9" width="17.140625"/>
+    <col customWidth="1" max="4" min="4" style="9" width="17.109375"/>
     <col customWidth="1" max="5" min="5" style="9" width="17"/>
-    <col customWidth="1" max="6" min="6" style="9" width="12.7109375"/>
-    <col customWidth="1" max="7" min="7" style="9" width="34.28515625"/>
-    <col customWidth="1" max="8" min="8" style="9" width="55.7109375"/>
-    <col customWidth="1" max="9" min="9" style="9" width="33.5703125"/>
-    <col customWidth="1" max="10" min="10" style="9" width="19.140625"/>
-    <col customWidth="1" max="11" min="11" style="9" width="20.5703125"/>
-    <col customWidth="1" max="12" min="12" style="9" width="16.28515625"/>
-    <col customWidth="1" max="16" min="13" style="9" width="14.7109375"/>
+    <col customWidth="1" max="6" min="6" style="9" width="12.6640625"/>
+    <col customWidth="1" max="7" min="7" style="9" width="34.33203125"/>
+    <col customWidth="1" max="8" min="8" style="9" width="55.6640625"/>
+    <col customWidth="1" max="9" min="9" style="9" width="33.5546875"/>
+    <col customWidth="1" max="10" min="10" style="9" width="19.109375"/>
+    <col customWidth="1" max="11" min="11" style="9" width="20.5546875"/>
+    <col customWidth="1" max="12" min="12" style="9" width="16.33203125"/>
+    <col customWidth="1" max="16" min="13" style="9" width="14.6640625"/>
     <col customWidth="1" max="20" min="17" outlineLevel="1" style="9" width="14"/>
     <col customWidth="1" max="21" min="21" width="14"/>
-    <col customWidth="1" max="22" min="22" width="14"/>
-    <col customWidth="1" max="23" min="23" width="14"/>
-    <col customWidth="1" max="24" min="24" width="14"/>
-    <col customWidth="1" max="25" min="25" width="14"/>
+    <col customWidth="1" max="25" min="22" outlineLevel="1" width="14"/>
     <col customWidth="1" max="26" min="26" width="14"/>
-    <col customWidth="1" max="27" min="27" width="14"/>
-    <col customWidth="1" max="28" min="28" width="14"/>
-    <col customWidth="1" max="29" min="29" width="14"/>
-    <col customWidth="1" max="30" min="30" width="14"/>
+    <col customWidth="1" max="30" min="27" outlineLevel="1" width="14"/>
     <col customWidth="1" max="31" min="31" width="14"/>
-    <col customWidth="1" max="32" min="32" width="14"/>
-    <col customWidth="1" max="33" min="33" width="14"/>
-    <col customWidth="1" max="34" min="34" width="14"/>
-    <col customWidth="1" max="35" min="35" width="14"/>
+    <col customWidth="1" max="35" min="32" outlineLevel="1" width="14"/>
     <col customWidth="1" max="36" min="36" width="14"/>
     <col customWidth="1" max="37" min="37" width="14"/>
     <col customWidth="1" max="38" min="38" width="14"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="56.25" r="2" s="9">
+    <row customFormat="1" customHeight="1" ht="57" r="2" s="9">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Подразделение</t>
@@ -4246,7 +4237,9 @@
       <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="n"/>
+      <c r="C3" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="D3" s="6" t="n">
         <v>4</v>
       </c>

--- a/reports/contracts/files/result.xlsx
+++ b/reports/contracts/files/result.xlsx
@@ -4555,10 +4555,10 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>110427</v>
+        <v>55213.5</v>
       </c>
       <c r="W6" t="n">
-        <v>-110427</v>
+        <v>-55213.5</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -15027,19 +15027,19 @@
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="n">
-        <v>408000</v>
+        <v>102000</v>
       </c>
       <c r="W142" t="n">
-        <v>408000</v>
+        <v>102000</v>
       </c>
       <c r="X142" t="n">
-        <v>408000</v>
+        <v>102000</v>
       </c>
       <c r="Y142" t="n">
-        <v>136000</v>
+        <v>34000</v>
       </c>
       <c r="Z142" t="n">
-        <v>1360000</v>
+        <v>340000</v>
       </c>
       <c r="AA142" t="inlineStr"/>
       <c r="AB142" t="inlineStr"/>
@@ -15121,19 +15121,19 @@
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="n">
-        <v>148770.48</v>
+        <v>37192.62</v>
       </c>
       <c r="W143" t="n">
-        <v>156503.04</v>
+        <v>39125.76</v>
       </c>
       <c r="X143" t="n">
-        <v>201992.56</v>
+        <v>50498.14</v>
       </c>
       <c r="Y143" t="n">
-        <v>52532.16</v>
+        <v>13133.04</v>
       </c>
       <c r="Z143" t="n">
-        <v>559798.24</v>
+        <v>139949.56</v>
       </c>
       <c r="AA143" t="inlineStr"/>
       <c r="AB143" t="inlineStr"/>
@@ -15289,19 +15289,19 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="n">
-        <v>1071556.16</v>
+        <v>267889.04</v>
       </c>
       <c r="W145" t="n">
-        <v>1093160.92</v>
+        <v>273290.23</v>
       </c>
       <c r="X145" t="n">
-        <v>1113341.96</v>
+        <v>278335.49</v>
       </c>
       <c r="Y145" t="n">
-        <v>374832.6</v>
+        <v>93708.14999999999</v>
       </c>
       <c r="Z145" t="n">
-        <v>3652891.64</v>
+        <v>913222.91</v>
       </c>
       <c r="AA145" t="inlineStr"/>
       <c r="AB145" t="inlineStr"/>
@@ -15383,19 +15383,19 @@
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="n">
-        <v>643388.6</v>
+        <v>160847.15</v>
       </c>
       <c r="W146" t="n">
-        <v>428969</v>
+        <v>107242.25</v>
       </c>
       <c r="X146" t="n">
-        <v>642059.6</v>
+        <v>160514.9</v>
       </c>
       <c r="Y146" t="n">
-        <v>439284.32</v>
+        <v>109821.08</v>
       </c>
       <c r="Z146" t="n">
-        <v>2153701.52</v>
+        <v>538425.38</v>
       </c>
       <c r="AA146" t="inlineStr"/>
       <c r="AB146" t="inlineStr"/>
@@ -15477,15 +15477,15 @@
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="n">
-        <v>1483.34</v>
+        <v>741.67</v>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="n">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="Z147" t="n">
-        <v>21983.34</v>
+        <v>10991.67</v>
       </c>
       <c r="AA147" t="inlineStr"/>
       <c r="AB147" t="inlineStr"/>
@@ -15564,14 +15564,14 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="n">
-        <v>71000.03999999999</v>
+        <v>17750.01</v>
       </c>
       <c r="X148" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="n">
-        <v>95000.03999999999</v>
+        <v>23750.01</v>
       </c>
       <c r="AA148" t="inlineStr"/>
       <c r="AB148" t="inlineStr"/>
@@ -15735,19 +15735,19 @@
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="W150" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="X150" t="n">
-        <v>500000.04</v>
+        <v>125000.01</v>
       </c>
       <c r="Y150" t="n">
-        <v>333333.36</v>
+        <v>83333.34</v>
       </c>
       <c r="Z150" t="n">
-        <v>1833333.48</v>
+        <v>458333.37</v>
       </c>
       <c r="AA150" t="inlineStr"/>
       <c r="AB150" t="inlineStr"/>
@@ -15828,19 +15828,19 @@
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="n">
-        <v>129000</v>
+        <v>32250</v>
       </c>
       <c r="W151" t="n">
-        <v>129000</v>
+        <v>32250</v>
       </c>
       <c r="X151" t="n">
-        <v>129000</v>
+        <v>32250</v>
       </c>
       <c r="Y151" t="n">
-        <v>66000</v>
+        <v>16500</v>
       </c>
       <c r="Z151" t="n">
-        <v>453000</v>
+        <v>113250</v>
       </c>
       <c r="AA151" t="inlineStr"/>
       <c r="AB151" t="inlineStr"/>
@@ -15921,19 +15921,19 @@
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="n">
-        <v>66600</v>
+        <v>22200</v>
       </c>
       <c r="W152" t="n">
-        <v>92400</v>
+        <v>30800</v>
       </c>
       <c r="X152" t="n">
-        <v>66900</v>
+        <v>22300</v>
       </c>
       <c r="Y152" t="n">
-        <v>21600</v>
+        <v>7300</v>
       </c>
       <c r="Z152" t="n">
-        <v>247500</v>
+        <v>82600</v>
       </c>
       <c r="AA152" t="inlineStr"/>
       <c r="AB152" t="inlineStr"/>
@@ -15956,10 +15956,10 @@
         <v>97090</v>
       </c>
       <c r="AK152" t="n">
-        <v>437229.03</v>
+        <v>437329.03</v>
       </c>
       <c r="AL152" t="n">
-        <v>-67020</v>
+        <v>-67120</v>
       </c>
     </row>
     <row r="153">
@@ -16107,19 +16107,19 @@
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="n">
-        <v>183586.68</v>
+        <v>45896.67</v>
       </c>
       <c r="W154" t="n">
-        <v>208033.36</v>
+        <v>52008.34</v>
       </c>
       <c r="X154" t="n">
-        <v>207719.92</v>
+        <v>51929.98</v>
       </c>
       <c r="Y154" t="n">
-        <v>63320</v>
+        <v>32223.32</v>
       </c>
       <c r="Z154" t="n">
-        <v>662659.96</v>
+        <v>182058.31</v>
       </c>
       <c r="AA154" t="inlineStr"/>
       <c r="AB154" t="inlineStr"/>
@@ -16136,16 +16136,16 @@
         <v>604200</v>
       </c>
       <c r="AI154" t="n">
-        <v>450000</v>
+        <v>600000</v>
       </c>
       <c r="AJ154" t="n">
-        <v>2234200</v>
+        <v>2384200</v>
       </c>
       <c r="AK154" t="n">
-        <v>688195.83</v>
+        <v>704589.15</v>
       </c>
       <c r="AL154" t="n">
-        <v>27995248.41</v>
+        <v>27978855.09</v>
       </c>
     </row>
     <row r="155">
@@ -16269,19 +16269,19 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="n">
-        <v>21305.32</v>
+        <v>5326.33</v>
       </c>
       <c r="W156" t="n">
-        <v>21866.68</v>
+        <v>5466.67</v>
       </c>
       <c r="X156" t="n">
-        <v>20699.44</v>
+        <v>5174.86</v>
       </c>
       <c r="Y156" t="n">
-        <v>14197.28</v>
+        <v>3549.32</v>
       </c>
       <c r="Z156" t="n">
-        <v>78068.72</v>
+        <v>19517.18</v>
       </c>
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
@@ -16359,14 +16359,14 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="n">
-        <v>33250.84</v>
+        <v>16625.42</v>
       </c>
       <c r="X157" t="n">
-        <v>32716.66</v>
+        <v>16358.33</v>
       </c>
       <c r="Y157" t="inlineStr"/>
       <c r="Z157" t="n">
-        <v>65967.5</v>
+        <v>32983.75</v>
       </c>
       <c r="AA157" t="inlineStr"/>
       <c r="AB157" t="inlineStr"/>
@@ -16441,19 +16441,19 @@
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="n">
-        <v>55205.48</v>
+        <v>13801.37</v>
       </c>
       <c r="W158" t="n">
-        <v>111779.12</v>
+        <v>27944.78</v>
       </c>
       <c r="X158" t="n">
-        <v>75683.44</v>
+        <v>18920.86</v>
       </c>
       <c r="Y158" t="n">
-        <v>23498.6</v>
+        <v>5874.65</v>
       </c>
       <c r="Z158" t="n">
-        <v>266166.64</v>
+        <v>66541.66</v>
       </c>
       <c r="AA158" t="inlineStr"/>
       <c r="AB158" t="inlineStr"/>
@@ -16534,19 +16534,19 @@
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="n">
-        <v>685326.04</v>
+        <v>171331.51</v>
       </c>
       <c r="W159" t="n">
-        <v>780781.6</v>
+        <v>195195.4</v>
       </c>
       <c r="X159" t="n">
-        <v>792474.88</v>
+        <v>198118.72</v>
       </c>
       <c r="Y159" t="n">
-        <v>270410.08</v>
+        <v>67602.52</v>
       </c>
       <c r="Z159" t="n">
-        <v>2528992.6</v>
+        <v>632248.15</v>
       </c>
       <c r="AA159" t="inlineStr"/>
       <c r="AB159" t="inlineStr"/>
@@ -16700,19 +16700,19 @@
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="n">
-        <v>310662</v>
+        <v>77665.5</v>
       </c>
       <c r="W161" t="n">
-        <v>60901.24</v>
+        <v>15225.31</v>
       </c>
       <c r="X161" t="n">
-        <v>43157.36</v>
+        <v>10789.34</v>
       </c>
       <c r="Y161" t="n">
-        <v>76805.96000000001</v>
+        <v>19201.49</v>
       </c>
       <c r="Z161" t="n">
-        <v>491526.56</v>
+        <v>122881.64</v>
       </c>
       <c r="AA161" t="inlineStr"/>
       <c r="AB161" t="inlineStr"/>
@@ -16787,19 +16787,19 @@
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="n">
-        <v>817664.5600000001</v>
+        <v>204416.14</v>
       </c>
       <c r="W162" t="n">
-        <v>76114.48</v>
+        <v>19028.62</v>
       </c>
       <c r="X162" t="n">
-        <v>11256.64</v>
+        <v>2814.16</v>
       </c>
       <c r="Y162" t="n">
-        <v>347805.68</v>
+        <v>86951.42</v>
       </c>
       <c r="Z162" t="n">
-        <v>1252841.36</v>
+        <v>313210.34</v>
       </c>
       <c r="AA162" t="inlineStr"/>
       <c r="AB162" t="inlineStr"/>
@@ -17356,19 +17356,19 @@
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="n">
-        <v>79193.32000000001</v>
+        <v>19798.33</v>
       </c>
       <c r="W169" t="n">
-        <v>33130</v>
+        <v>8282.5</v>
       </c>
       <c r="X169" t="n">
-        <v>105416.68</v>
+        <v>26354.17</v>
       </c>
       <c r="Y169" t="n">
-        <v>27510</v>
+        <v>6877.5</v>
       </c>
       <c r="Z169" t="n">
-        <v>245250</v>
+        <v>61312.5</v>
       </c>
       <c r="AA169" t="inlineStr"/>
       <c r="AB169" t="inlineStr"/>
@@ -17701,10 +17701,10 @@
         <v>3824416.08</v>
       </c>
       <c r="AI173" t="n">
-        <v>2568110.72</v>
+        <v>3842916.08</v>
       </c>
       <c r="AJ173" t="n">
-        <v>12766553.6</v>
+        <v>14041358.96</v>
       </c>
       <c r="AK173" t="n">
         <v>21702976.12</v>
@@ -17765,15 +17765,15 @@
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="n">
-        <v>8016.66</v>
+        <v>4008.33</v>
       </c>
       <c r="W174" t="n">
-        <v>2716.66</v>
+        <v>1358.33</v>
       </c>
       <c r="X174" t="inlineStr"/>
       <c r="Y174" t="inlineStr"/>
       <c r="Z174" t="n">
-        <v>10733.32</v>
+        <v>5366.66</v>
       </c>
       <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
@@ -18305,19 +18305,19 @@
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="n">
-        <v>117417.12</v>
+        <v>29354.28</v>
       </c>
       <c r="W180" t="n">
-        <v>117417.12</v>
+        <v>29354.28</v>
       </c>
       <c r="X180" t="n">
-        <v>120348.72</v>
+        <v>30087.18</v>
       </c>
       <c r="Y180" t="n">
-        <v>80232.48</v>
+        <v>20058.12</v>
       </c>
       <c r="Z180" t="n">
-        <v>435415.4399999999</v>
+        <v>108853.86</v>
       </c>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
@@ -18398,19 +18398,19 @@
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="n">
-        <v>261724.84</v>
+        <v>65431.21</v>
       </c>
       <c r="W181" t="n">
-        <v>1313167.88</v>
+        <v>328291.97</v>
       </c>
       <c r="X181" t="n">
-        <v>348635.04</v>
+        <v>87158.75999999999</v>
       </c>
       <c r="Y181" t="n">
-        <v>232890.36</v>
+        <v>58222.59</v>
       </c>
       <c r="Z181" t="n">
-        <v>2156418.12</v>
+        <v>539104.53</v>
       </c>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
@@ -18427,10 +18427,10 @@
         <v>103363.25</v>
       </c>
       <c r="AI181" t="n">
-        <v>69572.91</v>
+        <v>103763.94</v>
       </c>
       <c r="AJ181" t="n">
-        <v>637269.4500000001</v>
+        <v>671460.48</v>
       </c>
       <c r="AK181" t="n">
         <v>666129.99</v>
@@ -18570,15 +18570,15 @@
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="n">
-        <v>225000</v>
+        <v>112500</v>
       </c>
       <c r="W183" t="n">
-        <v>75000</v>
+        <v>37500</v>
       </c>
       <c r="X183" t="inlineStr"/>
       <c r="Y183" t="inlineStr"/>
       <c r="Z183" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="AA183" t="inlineStr"/>
       <c r="AB183" t="inlineStr"/>
@@ -19145,19 +19145,19 @@
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="n">
-        <v>397380</v>
+        <v>99345</v>
       </c>
       <c r="W190" t="n">
-        <v>397380</v>
+        <v>99345</v>
       </c>
       <c r="X190" t="n">
-        <v>264920</v>
+        <v>66230</v>
       </c>
       <c r="Y190" t="n">
-        <v>397380</v>
+        <v>99345</v>
       </c>
       <c r="Z190" t="n">
-        <v>1457060</v>
+        <v>364265</v>
       </c>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="inlineStr"/>
@@ -19238,19 +19238,19 @@
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="n">
-        <v>38640</v>
+        <v>9660</v>
       </c>
       <c r="W191" t="n">
-        <v>193200</v>
+        <v>48300</v>
       </c>
       <c r="X191" t="n">
-        <v>115920</v>
+        <v>28980</v>
       </c>
       <c r="Y191" t="n">
-        <v>77280</v>
+        <v>19320</v>
       </c>
       <c r="Z191" t="n">
-        <v>425040</v>
+        <v>106260</v>
       </c>
       <c r="AA191" t="inlineStr"/>
       <c r="AB191" t="inlineStr"/>
@@ -19267,10 +19267,10 @@
         <v>34776</v>
       </c>
       <c r="AI191" t="n">
-        <v>23184</v>
+        <v>34776</v>
       </c>
       <c r="AJ191" t="n">
-        <v>147265.96</v>
+        <v>158857.96</v>
       </c>
       <c r="AK191" t="n">
         <v>123000.64</v>
@@ -19331,15 +19331,15 @@
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="n">
-        <v>766859.6</v>
+        <v>383429.8</v>
       </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr"/>
       <c r="Y192" t="n">
-        <v>136141</v>
+        <v>68070.5</v>
       </c>
       <c r="Z192" t="n">
-        <v>903000.6</v>
+        <v>451500.3</v>
       </c>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr"/>
@@ -19679,19 +19679,19 @@
       <c r="T196" t="inlineStr"/>
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="n">
-        <v>7116</v>
+        <v>1779</v>
       </c>
       <c r="W196" t="n">
-        <v>7116</v>
+        <v>1779</v>
       </c>
       <c r="X196" t="n">
-        <v>7307.2</v>
+        <v>1826.8</v>
       </c>
       <c r="Y196" t="n">
-        <v>4896</v>
+        <v>1224</v>
       </c>
       <c r="Z196" t="n">
-        <v>26435.2</v>
+        <v>6608.8</v>
       </c>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr"/>
@@ -19861,19 +19861,19 @@
       <c r="T198" t="inlineStr"/>
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="n">
-        <v>679907.24</v>
+        <v>169976.81</v>
       </c>
       <c r="W198" t="n">
-        <v>143006.32</v>
+        <v>35751.58</v>
       </c>
       <c r="X198" t="n">
-        <v>112871.8</v>
+        <v>28217.95</v>
       </c>
       <c r="Y198" t="n">
-        <v>43168.68</v>
+        <v>10792.17</v>
       </c>
       <c r="Z198" t="n">
-        <v>978954.0400000002</v>
+        <v>244738.51</v>
       </c>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="inlineStr"/>
@@ -19954,19 +19954,19 @@
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="n">
-        <v>256455.56</v>
+        <v>64113.89</v>
       </c>
       <c r="W199" t="n">
-        <v>123144.4</v>
+        <v>30786.1</v>
       </c>
       <c r="X199" t="n">
-        <v>154475.64</v>
+        <v>38618.91</v>
       </c>
       <c r="Y199" t="n">
-        <v>81029.88</v>
+        <v>20257.47</v>
       </c>
       <c r="Z199" t="n">
-        <v>615105.48</v>
+        <v>153776.37</v>
       </c>
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr"/>
@@ -20047,19 +20047,19 @@
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="n">
-        <v>6361.08</v>
+        <v>1590.27</v>
       </c>
       <c r="W200" t="n">
-        <v>6368.88</v>
+        <v>1592.22</v>
       </c>
       <c r="X200" t="n">
-        <v>6466.76</v>
+        <v>1616.69</v>
       </c>
       <c r="Y200" t="n">
-        <v>4383.72</v>
+        <v>1095.93</v>
       </c>
       <c r="Z200" t="n">
-        <v>23580.44</v>
+        <v>5895.110000000001</v>
       </c>
       <c r="AA200" t="inlineStr"/>
       <c r="AB200" t="inlineStr"/>
@@ -20466,17 +20466,17 @@
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="n">
-        <v>37500.03</v>
+        <v>12500.01</v>
       </c>
       <c r="W205" t="n">
-        <v>37500.03</v>
+        <v>12500.01</v>
       </c>
       <c r="X205" t="n">
-        <v>12500.01</v>
+        <v>4166.67</v>
       </c>
       <c r="Y205" t="inlineStr"/>
       <c r="Z205" t="n">
-        <v>87500.06999999999</v>
+        <v>29166.69</v>
       </c>
       <c r="AA205" t="inlineStr"/>
       <c r="AB205" t="inlineStr"/>
@@ -20839,19 +20839,19 @@
       <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="n">
-        <v>1126335.8</v>
+        <v>281583.95</v>
       </c>
       <c r="W210" t="n">
-        <v>519998.68</v>
+        <v>129999.67</v>
       </c>
       <c r="X210" t="n">
-        <v>398354.68</v>
+        <v>99588.67</v>
       </c>
       <c r="Y210" t="n">
-        <v>352113.16</v>
+        <v>88028.28999999999</v>
       </c>
       <c r="Z210" t="n">
-        <v>2396802.32</v>
+        <v>599200.58</v>
       </c>
       <c r="AA210" t="inlineStr"/>
       <c r="AB210" t="inlineStr"/>
@@ -21082,15 +21082,15 @@
       <c r="T213" t="inlineStr"/>
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="n">
-        <v>96990</v>
+        <v>48495</v>
       </c>
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="n">
-        <v>307440</v>
+        <v>153720</v>
       </c>
       <c r="Y213" t="inlineStr"/>
       <c r="Z213" t="n">
-        <v>404430</v>
+        <v>202215</v>
       </c>
       <c r="AA213" t="inlineStr"/>
       <c r="AB213" t="inlineStr"/>
@@ -21164,16 +21164,16 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="n">
-        <v>8149.98</v>
+        <v>2716.66</v>
       </c>
       <c r="X214" t="n">
-        <v>12224.97</v>
+        <v>4074.99</v>
       </c>
       <c r="Y214" t="n">
-        <v>8149.98</v>
+        <v>2716.66</v>
       </c>
       <c r="Z214" t="n">
-        <v>28524.93</v>
+        <v>9508.309999999999</v>
       </c>
       <c r="AA214" t="inlineStr"/>
       <c r="AB214" t="inlineStr"/>
@@ -22406,14 +22406,14 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="X230" t="n">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="Y230" t="inlineStr"/>
       <c r="Z230" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="AA230" t="inlineStr"/>
       <c r="AB230" t="inlineStr"/>
@@ -23110,13 +23110,13 @@
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="inlineStr"/>
       <c r="X239" t="n">
-        <v>21427.68</v>
+        <v>10713.84</v>
       </c>
       <c r="Y239" t="n">
-        <v>63365</v>
+        <v>31682.5</v>
       </c>
       <c r="Z239" t="n">
-        <v>84792.67999999999</v>
+        <v>42396.34</v>
       </c>
       <c r="AA239" t="inlineStr"/>
       <c r="AB239" t="inlineStr"/>
@@ -23594,13 +23594,13 @@
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
       <c r="X245" t="n">
-        <v>16071.34</v>
+        <v>8035.67</v>
       </c>
       <c r="Y245" t="n">
-        <v>6514.66</v>
+        <v>6213.33</v>
       </c>
       <c r="Z245" t="n">
-        <v>22586</v>
+        <v>14249</v>
       </c>
       <c r="AA245" t="inlineStr"/>
       <c r="AB245" t="inlineStr"/>
@@ -23617,10 +23617,10 @@
         <v>16650</v>
       </c>
       <c r="AK245" t="n">
-        <v>11293</v>
+        <v>14249</v>
       </c>
       <c r="AL245" t="n">
-        <v>-10143</v>
+        <v>-13099</v>
       </c>
     </row>
     <row r="246">
@@ -24723,13 +24723,13 @@
       <c r="V260" t="inlineStr"/>
       <c r="W260" t="inlineStr"/>
       <c r="X260" t="n">
-        <v>16666.68</v>
+        <v>8333.34</v>
       </c>
       <c r="Y260" t="n">
-        <v>8333.34</v>
+        <v>4166.67</v>
       </c>
       <c r="Z260" t="n">
-        <v>25000.02</v>
+        <v>12500.01</v>
       </c>
       <c r="AA260" t="inlineStr"/>
       <c r="AB260" t="inlineStr"/>
@@ -24806,13 +24806,13 @@
       <c r="V261" t="inlineStr"/>
       <c r="W261" t="inlineStr"/>
       <c r="X261" t="n">
+        <v>4666.67</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>4666.67</v>
+      </c>
+      <c r="Z261" t="n">
         <v>9333.34</v>
-      </c>
-      <c r="Y261" t="n">
-        <v>9333.34</v>
-      </c>
-      <c r="Z261" t="n">
-        <v>18666.68</v>
       </c>
       <c r="AA261" t="inlineStr"/>
       <c r="AB261" t="inlineStr"/>
@@ -25804,10 +25804,10 @@
       <c r="W274" t="inlineStr"/>
       <c r="X274" t="inlineStr"/>
       <c r="Y274" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="Z274" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="AA274" t="inlineStr"/>
       <c r="AB274" t="inlineStr"/>
@@ -25820,10 +25820,10 @@
       <c r="AI274" t="inlineStr"/>
       <c r="AJ274" t="inlineStr"/>
       <c r="AK274" t="n">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="AL274" t="n">
-        <v>-150000</v>
+        <v>-300000</v>
       </c>
     </row>
     <row r="275">
@@ -26892,14 +26892,14 @@
       <c r="U288" t="inlineStr"/>
       <c r="V288" t="inlineStr"/>
       <c r="W288" t="n">
-        <v>1580624.34</v>
+        <v>790312.17</v>
       </c>
       <c r="X288" t="n">
-        <v>2403637.02</v>
+        <v>1201818.51</v>
       </c>
       <c r="Y288" t="inlineStr"/>
       <c r="Z288" t="n">
-        <v>3984261.36</v>
+        <v>1992130.68</v>
       </c>
       <c r="AA288" t="inlineStr"/>
       <c r="AB288" t="inlineStr"/>
@@ -28517,17 +28517,17 @@
       <c r="T308" t="inlineStr"/>
       <c r="U308" t="inlineStr"/>
       <c r="V308" t="n">
-        <v>12880830.66</v>
+        <v>4293610.22</v>
       </c>
       <c r="W308" t="n">
-        <v>29042859.27</v>
+        <v>9680953.09</v>
       </c>
       <c r="X308" t="n">
-        <v>13100932.56</v>
+        <v>4366977.52</v>
       </c>
       <c r="Y308" t="inlineStr"/>
       <c r="Z308" t="n">
-        <v>55024622.49</v>
+        <v>18341540.83</v>
       </c>
       <c r="AA308" t="inlineStr"/>
       <c r="AB308" t="inlineStr"/>
@@ -29956,15 +29956,15 @@
       <c r="T326" t="inlineStr"/>
       <c r="U326" t="inlineStr"/>
       <c r="V326" t="n">
-        <v>27144638.56</v>
+        <v>13572319.28</v>
       </c>
       <c r="W326" t="n">
-        <v>64289334.64</v>
+        <v>32144667.32</v>
       </c>
       <c r="X326" t="inlineStr"/>
       <c r="Y326" t="inlineStr"/>
       <c r="Z326" t="n">
-        <v>91433973.2</v>
+        <v>45716986.6</v>
       </c>
       <c r="AA326" t="inlineStr"/>
       <c r="AB326" t="inlineStr"/>
@@ -30354,14 +30354,14 @@
       <c r="U331" t="inlineStr"/>
       <c r="V331" t="inlineStr"/>
       <c r="W331" t="n">
-        <v>7532107.56</v>
+        <v>3766053.78</v>
       </c>
       <c r="X331" t="n">
-        <v>15884326.94</v>
+        <v>7942163.47</v>
       </c>
       <c r="Y331" t="inlineStr"/>
       <c r="Z331" t="n">
-        <v>23416434.5</v>
+        <v>11708217.25</v>
       </c>
       <c r="AA331" t="inlineStr"/>
       <c r="AB331" t="inlineStr"/>
@@ -32768,15 +32768,15 @@
       <c r="T361" t="inlineStr"/>
       <c r="U361" t="inlineStr"/>
       <c r="V361" t="n">
-        <v>7657897.18</v>
+        <v>3828948.59</v>
       </c>
       <c r="W361" t="inlineStr"/>
       <c r="X361" t="n">
-        <v>6660676.22</v>
+        <v>3330338.11</v>
       </c>
       <c r="Y361" t="inlineStr"/>
       <c r="Z361" t="n">
-        <v>14318573.4</v>
+        <v>7159286.699999999</v>
       </c>
       <c r="AA361" t="inlineStr"/>
       <c r="AB361" t="inlineStr"/>
@@ -33425,14 +33425,14 @@
       <c r="U369" t="inlineStr"/>
       <c r="V369" t="inlineStr"/>
       <c r="W369" t="n">
-        <v>6082425.7</v>
+        <v>3041212.85</v>
       </c>
       <c r="X369" t="n">
-        <v>3464366.1</v>
+        <v>1732183.05</v>
       </c>
       <c r="Y369" t="inlineStr"/>
       <c r="Z369" t="n">
-        <v>9546791.800000001</v>
+        <v>4773395.9</v>
       </c>
       <c r="AA369" t="inlineStr"/>
       <c r="AB369" t="inlineStr"/>
@@ -34684,17 +34684,17 @@
       <c r="T385" t="inlineStr"/>
       <c r="U385" t="inlineStr"/>
       <c r="V385" t="n">
-        <v>66165917.16</v>
+        <v>22055305.72</v>
       </c>
       <c r="W385" t="n">
-        <v>52176306.84</v>
+        <v>17392102.28</v>
       </c>
       <c r="X385" t="n">
-        <v>48168911.79</v>
+        <v>16056303.93</v>
       </c>
       <c r="Y385" t="inlineStr"/>
       <c r="Z385" t="n">
-        <v>166511135.79</v>
+        <v>55503711.93</v>
       </c>
       <c r="AA385" t="inlineStr"/>
       <c r="AB385" t="inlineStr"/>
@@ -37545,14 +37545,14 @@
       <c r="U421" t="inlineStr"/>
       <c r="V421" t="inlineStr"/>
       <c r="W421" t="n">
-        <v>2813168.44</v>
+        <v>1406584.22</v>
       </c>
       <c r="X421" t="n">
-        <v>354989.76</v>
+        <v>177494.88</v>
       </c>
       <c r="Y421" t="inlineStr"/>
       <c r="Z421" t="n">
-        <v>3168158.2</v>
+        <v>1584079.1</v>
       </c>
       <c r="AA421" t="inlineStr"/>
       <c r="AB421" t="inlineStr"/>
@@ -39780,14 +39780,14 @@
       <c r="U450" t="inlineStr"/>
       <c r="V450" t="inlineStr"/>
       <c r="W450" t="n">
-        <v>273391.42</v>
+        <v>136695.71</v>
       </c>
       <c r="X450" t="n">
-        <v>183884.1</v>
+        <v>91942.05</v>
       </c>
       <c r="Y450" t="inlineStr"/>
       <c r="Z450" t="n">
-        <v>457275.52</v>
+        <v>228637.76</v>
       </c>
       <c r="AA450" t="inlineStr"/>
       <c r="AB450" t="inlineStr"/>
@@ -47235,19 +47235,19 @@
       <c r="T553" t="inlineStr"/>
       <c r="U553" t="inlineStr"/>
       <c r="V553" t="n">
-        <v>64448875.96</v>
+        <v>16112218.99</v>
       </c>
       <c r="W553" t="n">
-        <v>48930677.56</v>
+        <v>12232669.39</v>
       </c>
       <c r="X553" t="n">
-        <v>10451850.76</v>
+        <v>2612962.69</v>
       </c>
       <c r="Y553" t="n">
-        <v>11957254.48</v>
+        <v>2989313.62</v>
       </c>
       <c r="Z553" t="n">
-        <v>135788658.76</v>
+        <v>33947164.69000001</v>
       </c>
       <c r="AA553" t="inlineStr"/>
       <c r="AB553" t="inlineStr"/>
@@ -47565,13 +47565,13 @@
       <c r="V557" t="inlineStr"/>
       <c r="W557" t="inlineStr"/>
       <c r="X557" t="n">
-        <v>4911124.7</v>
+        <v>2455562.35</v>
       </c>
       <c r="Y557" t="n">
-        <v>13509682.96</v>
+        <v>6754841.48</v>
       </c>
       <c r="Z557" t="n">
-        <v>18420807.66</v>
+        <v>9210403.83</v>
       </c>
       <c r="AA557" t="inlineStr"/>
       <c r="AB557" t="inlineStr"/>
@@ -49487,13 +49487,13 @@
       <c r="V582" t="inlineStr"/>
       <c r="W582" t="inlineStr"/>
       <c r="X582" t="n">
-        <v>22175391</v>
+        <v>11466580.67</v>
       </c>
       <c r="Y582" t="n">
-        <v>2206678.58</v>
+        <v>1149890.69</v>
       </c>
       <c r="Z582" t="n">
-        <v>24382069.58</v>
+        <v>12616471.36</v>
       </c>
       <c r="AA582" t="inlineStr"/>
       <c r="AB582" t="inlineStr"/>
@@ -50390,10 +50390,10 @@
       <c r="AG594" t="inlineStr"/>
       <c r="AH594" t="inlineStr"/>
       <c r="AI594" t="n">
-        <v>17169230.88</v>
+        <v>20613446.16</v>
       </c>
       <c r="AJ594" t="n">
-        <v>17169230.88</v>
+        <v>20613446.16</v>
       </c>
       <c r="AK594" t="inlineStr"/>
       <c r="AL594" t="n">

--- a/reports/contracts/files/result.xlsx
+++ b/reports/contracts/files/result.xlsx
@@ -4302,7 +4302,7 @@
         <v>2344533040.03</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="9">
+    <row customFormat="1" outlineLevel="1" r="5" s="9">
       <c r="A5" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4376,7 +4376,7 @@
         <v>41363020.29</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="9">
+    <row customFormat="1" outlineLevel="1" r="6" s="9">
       <c r="A6" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4458,7 +4458,7 @@
         <v>8676880.18</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="9">
+    <row customFormat="1" outlineLevel="1" r="7" s="9">
       <c r="A7" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4528,7 +4528,7 @@
         <v>3605549.82</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="9">
+    <row customFormat="1" outlineLevel="1" r="8" s="9">
       <c r="A8" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4598,7 +4598,7 @@
         <v>3003320.16</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="9">
+    <row customFormat="1" outlineLevel="1" r="9" s="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4668,7 +4668,7 @@
         <v>1623781.32</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="9">
+    <row customFormat="1" outlineLevel="1" r="10" s="9">
       <c r="A10" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4746,7 +4746,7 @@
         <v>-2556000</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="9">
+    <row customFormat="1" outlineLevel="1" r="11" s="9">
       <c r="A11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4816,7 +4816,7 @@
         <v>-6651893.38</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="9">
+    <row customFormat="1" outlineLevel="1" r="12" s="9">
       <c r="A12" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4886,7 +4886,7 @@
         <v>9407168.699999999</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="9">
+    <row customFormat="1" outlineLevel="1" r="13" s="9">
       <c r="A13" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -4962,7 +4962,7 @@
         <v>4472.19</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="9">
+    <row customFormat="1" outlineLevel="1" r="14" s="9">
       <c r="A14" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5028,7 +5028,7 @@
         <v>433898.31</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="9">
+    <row customFormat="1" outlineLevel="1" r="15" s="9">
       <c r="A15" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5102,7 +5102,7 @@
         <v>841636047.11</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="9">
+    <row customFormat="1" outlineLevel="1" r="16" s="9">
       <c r="A16" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5178,7 +5178,7 @@
         <v>3491473.52</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="9">
+    <row customFormat="1" outlineLevel="1" r="17" s="9">
       <c r="A17" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5252,7 +5252,7 @@
         <v>356250.17</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="9">
+    <row customFormat="1" outlineLevel="1" r="18" s="9">
       <c r="A18" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5326,7 +5326,7 @@
         <v>772986697.17</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="9">
+    <row customFormat="1" outlineLevel="1" r="19" s="9">
       <c r="A19" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5404,7 +5404,7 @@
         <v>14531634.21</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="9">
+    <row customFormat="1" outlineLevel="1" r="20" s="9">
       <c r="A20" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5470,7 +5470,7 @@
         <v>1368186.45</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="9">
+    <row customFormat="1" outlineLevel="1" r="21" s="9">
       <c r="A21" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5544,7 +5544,7 @@
         <v>166231966.58</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="9">
+    <row customFormat="1" outlineLevel="1" r="22" s="9">
       <c r="A22" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5614,7 +5614,7 @@
         <v>3713749.8</v>
       </c>
     </row>
-    <row customFormat="1" r="23" s="9">
+    <row customFormat="1" outlineLevel="1" r="23" s="9">
       <c r="A23" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5688,7 +5688,7 @@
         <v>273014331.09</v>
       </c>
     </row>
-    <row customFormat="1" r="24" s="9">
+    <row customFormat="1" outlineLevel="1" r="24" s="9">
       <c r="A24" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5758,7 +5758,7 @@
         <v>3073622.61</v>
       </c>
     </row>
-    <row customFormat="1" r="25" s="9">
+    <row customFormat="1" outlineLevel="1" r="25" s="9">
       <c r="A25" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5828,7 +5828,7 @@
         <v>7782630.25</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="9">
+    <row customFormat="1" outlineLevel="1" r="26" s="9">
       <c r="A26" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5894,7 +5894,7 @@
         <v>1353059.02</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="9">
+    <row customFormat="1" outlineLevel="1" r="27" s="9">
       <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -5976,7 +5976,7 @@
         <v>396385661.43</v>
       </c>
     </row>
-    <row customFormat="1" r="28" s="9">
+    <row customFormat="1" outlineLevel="1" r="28" s="9">
       <c r="A28" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6042,7 +6042,7 @@
         <v>563353388.01</v>
       </c>
     </row>
-    <row customFormat="1" r="29" s="9">
+    <row customFormat="1" outlineLevel="1" r="29" s="9">
       <c r="A29" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6108,7 +6108,7 @@
         <v>26266297.28</v>
       </c>
     </row>
-    <row customFormat="1" r="30" s="9">
+    <row customFormat="1" outlineLevel="1" r="30" s="9">
       <c r="A30" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6174,7 +6174,7 @@
         <v>56857355.08</v>
       </c>
     </row>
-    <row customFormat="1" r="31" s="9">
+    <row customFormat="1" outlineLevel="1" r="31" s="9">
       <c r="A31" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6254,7 +6254,7 @@
         <v>125476.76</v>
       </c>
     </row>
-    <row customFormat="1" r="32" s="9">
+    <row customFormat="1" outlineLevel="1" r="32" s="9">
       <c r="A32" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6324,7 +6324,7 @@
         <v>238631.91</v>
       </c>
     </row>
-    <row customFormat="1" r="33" s="9">
+    <row customFormat="1" outlineLevel="1" r="33" s="9">
       <c r="A33" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6404,7 +6404,7 @@
         <v>1720769.65</v>
       </c>
     </row>
-    <row customFormat="1" r="34" s="9">
+    <row customFormat="1" outlineLevel="1" r="34" s="9">
       <c r="A34" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6480,7 +6480,7 @@
         <v>10490.6</v>
       </c>
     </row>
-    <row customFormat="1" r="35" s="9">
+    <row customFormat="1" outlineLevel="1" r="35" s="9">
       <c r="A35" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6554,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="36" s="9">
+    <row customFormat="1" outlineLevel="1" r="36" s="9">
       <c r="A36" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6620,7 +6620,7 @@
         <v>64475.73</v>
       </c>
     </row>
-    <row customFormat="1" r="37" s="9">
+    <row customFormat="1" outlineLevel="1" r="37" s="9">
       <c r="A37" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6694,7 +6694,7 @@
         <v>6474727.31</v>
       </c>
     </row>
-    <row customFormat="1" r="38" s="9">
+    <row customFormat="1" outlineLevel="1" r="38" s="9">
       <c r="A38" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6760,7 +6760,7 @@
         <v>37243.2</v>
       </c>
     </row>
-    <row customFormat="1" r="39" s="9">
+    <row customFormat="1" outlineLevel="1" r="39" s="9">
       <c r="A39" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6840,7 +6840,7 @@
         <v>894151.67</v>
       </c>
     </row>
-    <row customFormat="1" r="40" s="9">
+    <row customFormat="1" outlineLevel="1" r="40" s="9">
       <c r="A40" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6906,7 +6906,7 @@
         <v>898764.47</v>
       </c>
     </row>
-    <row customFormat="1" r="41" s="9">
+    <row customFormat="1" outlineLevel="1" r="41" s="9">
       <c r="A41" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -6986,7 +6986,7 @@
         <v>564372.92</v>
       </c>
     </row>
-    <row customFormat="1" r="42" s="9">
+    <row customFormat="1" outlineLevel="1" r="42" s="9">
       <c r="A42" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7056,7 +7056,7 @@
         <v>778370.17</v>
       </c>
     </row>
-    <row customFormat="1" r="43" s="9">
+    <row customFormat="1" outlineLevel="1" r="43" s="9">
       <c r="A43" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7132,7 +7132,7 @@
         <v>18199.65</v>
       </c>
     </row>
-    <row customFormat="1" r="44" s="9">
+    <row customFormat="1" outlineLevel="1" r="44" s="9">
       <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="45" s="9">
+    <row customFormat="1" outlineLevel="1" r="45" s="9">
       <c r="A45" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7272,7 +7272,7 @@
         <v>57944.62</v>
       </c>
     </row>
-    <row customFormat="1" r="46" s="9">
+    <row customFormat="1" outlineLevel="1" r="46" s="9">
       <c r="A46" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="47" s="9">
+    <row customFormat="1" outlineLevel="1" r="47" s="9">
       <c r="A47" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7412,7 +7412,7 @@
         <v>47211.06</v>
       </c>
     </row>
-    <row customFormat="1" r="48" s="9">
+    <row customFormat="1" outlineLevel="1" r="48" s="9">
       <c r="A48" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7492,7 +7492,7 @@
         <v>798524.3100000001</v>
       </c>
     </row>
-    <row customFormat="1" r="49" s="9">
+    <row customFormat="1" outlineLevel="1" r="49" s="9">
       <c r="A49" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7562,7 +7562,7 @@
         <v>830160.73</v>
       </c>
     </row>
-    <row customFormat="1" r="50" s="9">
+    <row customFormat="1" outlineLevel="1" r="50" s="9">
       <c r="A50" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7638,7 +7638,7 @@
         <v>3553.41</v>
       </c>
     </row>
-    <row customFormat="1" r="51" s="9">
+    <row customFormat="1" outlineLevel="1" r="51" s="9">
       <c r="A51" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7718,7 +7718,7 @@
         <v>437644.43</v>
       </c>
     </row>
-    <row customFormat="1" r="52" s="9">
+    <row customFormat="1" outlineLevel="1" r="52" s="9">
       <c r="A52" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7788,7 +7788,7 @@
         <v>457862.69</v>
       </c>
     </row>
-    <row customFormat="1" r="53" s="9">
+    <row customFormat="1" outlineLevel="1" r="53" s="9">
       <c r="A53" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7868,7 +7868,7 @@
         <v>667728.83</v>
       </c>
     </row>
-    <row customFormat="1" r="54" s="9">
+    <row customFormat="1" outlineLevel="1" r="54" s="9">
       <c r="A54" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -7938,7 +7938,7 @@
         <v>693103.2</v>
       </c>
     </row>
-    <row customFormat="1" r="55" s="9">
+    <row customFormat="1" outlineLevel="1" r="55" s="9">
       <c r="A55" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8018,7 +8018,7 @@
         <v>445573.33</v>
       </c>
     </row>
-    <row customFormat="1" r="56" s="9">
+    <row customFormat="1" outlineLevel="1" r="56" s="9">
       <c r="A56" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8088,7 +8088,7 @@
         <v>464071.88</v>
       </c>
     </row>
-    <row customFormat="1" r="57" s="9">
+    <row customFormat="1" outlineLevel="1" r="57" s="9">
       <c r="A57" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8154,7 +8154,7 @@
         <v>13091</v>
       </c>
     </row>
-    <row customFormat="1" r="58" s="9">
+    <row customFormat="1" outlineLevel="1" r="58" s="9">
       <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8234,7 +8234,7 @@
         <v>137329.22</v>
       </c>
     </row>
-    <row customFormat="1" r="59" s="9">
+    <row customFormat="1" outlineLevel="1" r="59" s="9">
       <c r="A59" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8304,7 +8304,7 @@
         <v>196972.86</v>
       </c>
     </row>
-    <row customFormat="1" r="60" s="9">
+    <row customFormat="1" outlineLevel="1" r="60" s="9">
       <c r="A60" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8380,7 +8380,7 @@
         <v>6076.2</v>
       </c>
     </row>
-    <row customFormat="1" r="61" s="9">
+    <row customFormat="1" outlineLevel="1" r="61" s="9">
       <c r="A61" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8450,7 +8450,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row customFormat="1" r="62" s="9">
+    <row customFormat="1" outlineLevel="1" r="62" s="9">
       <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8530,7 +8530,7 @@
         <v>627069.37</v>
       </c>
     </row>
-    <row customFormat="1" r="63" s="9">
+    <row customFormat="1" outlineLevel="1" r="63" s="9">
       <c r="A63" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8600,7 +8600,7 @@
         <v>10847</v>
       </c>
     </row>
-    <row customFormat="1" r="64" s="9">
+    <row customFormat="1" outlineLevel="1" r="64" s="9">
       <c r="A64" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8666,7 +8666,7 @@
         <v>23097.95</v>
       </c>
     </row>
-    <row customFormat="1" r="65" s="9">
+    <row customFormat="1" outlineLevel="1" r="65" s="9">
       <c r="A65" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8754,7 +8754,7 @@
         <v>-8860.110000000001</v>
       </c>
     </row>
-    <row customFormat="1" r="66" s="9">
+    <row customFormat="1" outlineLevel="1" r="66" s="9">
       <c r="A66" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8832,7 +8832,7 @@
         <v>144821.77</v>
       </c>
     </row>
-    <row customFormat="1" r="67" s="9">
+    <row customFormat="1" outlineLevel="1" r="67" s="9">
       <c r="A67" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8906,7 +8906,7 @@
         <v>2967128.81</v>
       </c>
     </row>
-    <row customFormat="1" r="68" s="9">
+    <row customFormat="1" outlineLevel="1" r="68" s="9">
       <c r="A68" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -8972,7 +8972,7 @@
         <v>19956.91</v>
       </c>
     </row>
-    <row customFormat="1" r="69" s="9">
+    <row customFormat="1" outlineLevel="1" r="69" s="9">
       <c r="A69" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9042,7 +9042,7 @@
         <v>-137337.78</v>
       </c>
     </row>
-    <row customFormat="1" r="70" s="9">
+    <row customFormat="1" outlineLevel="1" r="70" s="9">
       <c r="A70" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="71" s="9">
+    <row customFormat="1" outlineLevel="1" r="71" s="9">
       <c r="A71" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9182,7 +9182,7 @@
         <v>30585.29</v>
       </c>
     </row>
-    <row customFormat="1" r="72" s="9">
+    <row customFormat="1" outlineLevel="1" r="72" s="9">
       <c r="A72" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9256,7 +9256,7 @@
         <v>19142518.68</v>
       </c>
     </row>
-    <row customFormat="1" r="73" s="9">
+    <row customFormat="1" outlineLevel="1" r="73" s="9">
       <c r="A73" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9322,7 +9322,7 @@
         <v>227978.17</v>
       </c>
     </row>
-    <row customFormat="1" r="74" s="9">
+    <row customFormat="1" outlineLevel="1" r="74" s="9">
       <c r="A74" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9402,7 +9402,7 @@
         <v>692.58</v>
       </c>
     </row>
-    <row customFormat="1" r="75" s="9">
+    <row customFormat="1" outlineLevel="1" r="75" s="9">
       <c r="A75" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9468,7 +9468,7 @@
         <v>118052.78</v>
       </c>
     </row>
-    <row customFormat="1" r="76" s="9">
+    <row customFormat="1" outlineLevel="1" r="76" s="9">
       <c r="A76" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9538,7 +9538,7 @@
         <v>883462.14</v>
       </c>
     </row>
-    <row customFormat="1" r="77" s="9">
+    <row customFormat="1" outlineLevel="1" r="77" s="9">
       <c r="A77" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9604,7 +9604,7 @@
         <v>36399.4</v>
       </c>
     </row>
-    <row customFormat="1" r="78" s="9">
+    <row customFormat="1" outlineLevel="1" r="78" s="9">
       <c r="A78" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9684,7 +9684,7 @@
         <v>8309640.64</v>
       </c>
     </row>
-    <row customFormat="1" r="79" s="9">
+    <row customFormat="1" outlineLevel="1" r="79" s="9">
       <c r="A79" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9754,7 +9754,7 @@
         <v>8313558.16</v>
       </c>
     </row>
-    <row customFormat="1" r="80" s="9">
+    <row customFormat="1" outlineLevel="1" r="80" s="9">
       <c r="A80" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9834,7 +9834,7 @@
         <v>676925.52</v>
       </c>
     </row>
-    <row customFormat="1" r="81" s="9">
+    <row customFormat="1" outlineLevel="1" r="81" s="9">
       <c r="A81" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9904,7 +9904,7 @@
         <v>715530.67</v>
       </c>
     </row>
-    <row customFormat="1" r="82" s="9">
+    <row customFormat="1" outlineLevel="1" r="82" s="9">
       <c r="A82" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -9984,7 +9984,7 @@
         <v>600001.38</v>
       </c>
     </row>
-    <row customFormat="1" r="83" s="9">
+    <row customFormat="1" outlineLevel="1" r="83" s="9">
       <c r="A83" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10054,7 +10054,7 @@
         <v>693073.16</v>
       </c>
     </row>
-    <row customFormat="1" r="84" s="9">
+    <row customFormat="1" outlineLevel="1" r="84" s="9">
       <c r="A84" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10134,7 +10134,7 @@
         <v>52987.35</v>
       </c>
     </row>
-    <row customFormat="1" r="85" s="9">
+    <row customFormat="1" outlineLevel="1" r="85" s="9">
       <c r="A85" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10204,7 +10204,7 @@
         <v>218579.98</v>
       </c>
     </row>
-    <row customFormat="1" r="86" s="9">
+    <row customFormat="1" outlineLevel="1" r="86" s="9">
       <c r="A86" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10282,7 +10282,7 @@
         <v>5542.8</v>
       </c>
     </row>
-    <row customFormat="1" r="87" s="9">
+    <row customFormat="1" outlineLevel="1" r="87" s="9">
       <c r="A87" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10362,7 +10362,7 @@
         <v>275413.67</v>
       </c>
     </row>
-    <row customFormat="1" r="88" s="9">
+    <row customFormat="1" outlineLevel="1" r="88" s="9">
       <c r="A88" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10432,7 +10432,7 @@
         <v>321824.56</v>
       </c>
     </row>
-    <row customFormat="1" r="89" s="9">
+    <row customFormat="1" outlineLevel="1" r="89" s="9">
       <c r="A89" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10508,7 +10508,7 @@
         <v>6972.75</v>
       </c>
     </row>
-    <row customFormat="1" r="90" s="9">
+    <row customFormat="1" outlineLevel="1" r="90" s="9">
       <c r="A90" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="91" s="9">
+    <row customFormat="1" outlineLevel="1" r="91" s="9">
       <c r="A91" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10658,7 +10658,7 @@
         <v>572537.92</v>
       </c>
     </row>
-    <row customFormat="1" r="92" s="9">
+    <row customFormat="1" outlineLevel="1" r="92" s="9">
       <c r="A92" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10746,7 +10746,7 @@
         <v>-1366.72</v>
       </c>
     </row>
-    <row customFormat="1" r="93" s="9">
+    <row customFormat="1" outlineLevel="1" r="93" s="9">
       <c r="A93" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10816,7 +10816,7 @@
         <v>505295.02</v>
       </c>
     </row>
-    <row customFormat="1" r="94" s="9">
+    <row customFormat="1" outlineLevel="1" r="94" s="9">
       <c r="A94" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10892,7 +10892,7 @@
         <v>3137.4</v>
       </c>
     </row>
-    <row customFormat="1" r="95" s="9">
+    <row customFormat="1" outlineLevel="1" r="95" s="9">
       <c r="A95" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -10966,7 +10966,7 @@
         <v>511058.86</v>
       </c>
     </row>
-    <row customFormat="1" r="96" s="9">
+    <row customFormat="1" outlineLevel="1" r="96" s="9">
       <c r="A96" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="97" s="9">
+    <row customFormat="1" outlineLevel="1" r="97" s="9">
       <c r="A97" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11098,7 +11098,7 @@
         <v>12208</v>
       </c>
     </row>
-    <row customFormat="1" r="98" s="9">
+    <row customFormat="1" outlineLevel="1" r="98" s="9">
       <c r="A98" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11174,7 +11174,7 @@
         <v>4378.54</v>
       </c>
     </row>
-    <row customFormat="1" r="99" s="9">
+    <row customFormat="1" outlineLevel="1" r="99" s="9">
       <c r="A99" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11244,7 +11244,7 @@
         <v>39248</v>
       </c>
     </row>
-    <row customFormat="1" r="100" s="9">
+    <row customFormat="1" outlineLevel="1" r="100" s="9">
       <c r="A100" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11328,7 +11328,7 @@
         <v>400072.73</v>
       </c>
     </row>
-    <row customFormat="1" r="101" s="9">
+    <row customFormat="1" outlineLevel="1" r="101" s="9">
       <c r="A101" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11394,7 +11394,7 @@
         <v>423728.79</v>
       </c>
     </row>
-    <row customFormat="1" r="102" s="9">
+    <row customFormat="1" outlineLevel="1" r="102" s="9">
       <c r="A102" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11468,7 +11468,7 @@
         <v>139163.25</v>
       </c>
     </row>
-    <row customFormat="1" r="103" s="9">
+    <row customFormat="1" outlineLevel="1" r="103" s="9">
       <c r="A103" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11538,7 +11538,7 @@
         <v>916.63</v>
       </c>
     </row>
-    <row customFormat="1" r="104" s="9">
+    <row customFormat="1" outlineLevel="1" r="104" s="9">
       <c r="A104" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11618,7 +11618,7 @@
         <v>463376.06</v>
       </c>
     </row>
-    <row customFormat="1" r="105" s="9">
+    <row customFormat="1" outlineLevel="1" r="105" s="9">
       <c r="A105" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11688,7 +11688,7 @@
         <v>482397.45</v>
       </c>
     </row>
-    <row customFormat="1" r="106" s="9">
+    <row customFormat="1" outlineLevel="1" r="106" s="9">
       <c r="A106" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11768,7 +11768,7 @@
         <v>215486.96</v>
       </c>
     </row>
-    <row customFormat="1" r="107" s="9">
+    <row customFormat="1" outlineLevel="1" r="107" s="9">
       <c r="A107" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11838,7 +11838,7 @@
         <v>252151.92</v>
       </c>
     </row>
-    <row customFormat="1" r="108" s="9">
+    <row customFormat="1" outlineLevel="1" r="108" s="9">
       <c r="A108" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11914,7 +11914,7 @@
         <v>5879</v>
       </c>
     </row>
-    <row customFormat="1" r="109" s="9">
+    <row customFormat="1" outlineLevel="1" r="109" s="9">
       <c r="A109" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -11988,7 +11988,7 @@
         <v>400543.72</v>
       </c>
     </row>
-    <row customFormat="1" r="110" s="9">
+    <row customFormat="1" outlineLevel="1" r="110" s="9">
       <c r="A110" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12058,7 +12058,7 @@
         <v>367174.43</v>
       </c>
     </row>
-    <row customFormat="1" r="111" s="9">
+    <row customFormat="1" outlineLevel="1" r="111" s="9">
       <c r="A111" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12134,7 +12134,7 @@
         <v>1757882.62</v>
       </c>
     </row>
-    <row customFormat="1" r="112" s="9">
+    <row customFormat="1" outlineLevel="1" r="112" s="9">
       <c r="A112" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12200,7 +12200,7 @@
         <v>1582094.36</v>
       </c>
     </row>
-    <row customFormat="1" r="113" s="9">
+    <row customFormat="1" outlineLevel="1" r="113" s="9">
       <c r="A113" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12274,7 +12274,7 @@
         <v>779243.89</v>
       </c>
     </row>
-    <row customFormat="1" r="114" s="9">
+    <row customFormat="1" outlineLevel="1" r="114" s="9">
       <c r="A114" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12340,7 +12340,7 @@
         <v>701319.5</v>
       </c>
     </row>
-    <row customFormat="1" r="115" s="9">
+    <row customFormat="1" outlineLevel="1" r="115" s="9">
       <c r="A115" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12416,7 +12416,7 @@
         <v>1237851.86</v>
       </c>
     </row>
-    <row customFormat="1" r="116" s="9">
+    <row customFormat="1" outlineLevel="1" r="116" s="9">
       <c r="A116" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12482,7 +12482,7 @@
         <v>1114066.67</v>
       </c>
     </row>
-    <row customFormat="1" r="117" s="9">
+    <row customFormat="1" outlineLevel="1" r="117" s="9">
       <c r="A117" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12556,7 +12556,7 @@
         <v>82623.78</v>
       </c>
     </row>
-    <row customFormat="1" r="118" s="9">
+    <row customFormat="1" outlineLevel="1" r="118" s="9">
       <c r="A118" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12626,7 +12626,7 @@
         <v>21147.89</v>
       </c>
     </row>
-    <row customFormat="1" r="119" s="9">
+    <row customFormat="1" outlineLevel="1" r="119" s="9">
       <c r="A119" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12700,7 +12700,7 @@
         <v>385649.52</v>
       </c>
     </row>
-    <row customFormat="1" r="120" s="9">
+    <row customFormat="1" outlineLevel="1" r="120" s="9">
       <c r="A120" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12770,7 +12770,7 @@
         <v>62475.22</v>
       </c>
     </row>
-    <row customFormat="1" r="121" s="9">
+    <row customFormat="1" outlineLevel="1" r="121" s="9">
       <c r="A121" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12844,7 +12844,7 @@
         <v>928019.45</v>
       </c>
     </row>
-    <row customFormat="1" r="122" s="9">
+    <row customFormat="1" outlineLevel="1" r="122" s="9">
       <c r="A122" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12914,7 +12914,7 @@
         <v>1226635.42</v>
       </c>
     </row>
-    <row customFormat="1" r="123" s="9">
+    <row customFormat="1" outlineLevel="1" r="123" s="9">
       <c r="A123" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -12988,7 +12988,7 @@
         <v>916085.2</v>
       </c>
     </row>
-    <row customFormat="1" r="124" s="9">
+    <row customFormat="1" outlineLevel="1" r="124" s="9">
       <c r="A124" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13062,7 +13062,7 @@
         <v>148405.8</v>
       </c>
     </row>
-    <row customFormat="1" r="125" s="9">
+    <row customFormat="1" outlineLevel="1" r="125" s="9">
       <c r="A125" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13138,7 +13138,7 @@
         <v>3482784.91</v>
       </c>
     </row>
-    <row customFormat="1" r="126" s="9">
+    <row customFormat="1" outlineLevel="1" r="126" s="9">
       <c r="A126" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13204,7 +13204,7 @@
         <v>3134506.41</v>
       </c>
     </row>
-    <row customFormat="1" r="127" s="9">
+    <row customFormat="1" outlineLevel="1" r="127" s="9">
       <c r="A127" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13278,7 +13278,7 @@
         <v>1379036.35</v>
       </c>
     </row>
-    <row customFormat="1" r="128" s="9">
+    <row customFormat="1" outlineLevel="1" r="128" s="9">
       <c r="A128" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13344,7 +13344,7 @@
         <v>1241132.71</v>
       </c>
     </row>
-    <row customFormat="1" r="129" s="9">
+    <row customFormat="1" outlineLevel="1" r="129" s="9">
       <c r="A129" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13438,7 +13438,7 @@
         <v>7285069.93</v>
       </c>
     </row>
-    <row customFormat="1" r="130" s="9">
+    <row customFormat="1" outlineLevel="1" r="130" s="9">
       <c r="A130" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13504,7 +13504,7 @@
         <v>2072094.19</v>
       </c>
     </row>
-    <row customFormat="1" r="131" s="9">
+    <row customFormat="1" outlineLevel="1" r="131" s="9">
       <c r="A131" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customFormat="1" r="132" s="9">
+    <row customFormat="1" outlineLevel="1" r="132" s="9">
       <c r="A132" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13664,7 +13664,7 @@
         <v>2930477.56</v>
       </c>
     </row>
-    <row customFormat="1" r="133" s="9">
+    <row customFormat="1" outlineLevel="1" r="133" s="9">
       <c r="A133" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13750,7 +13750,7 @@
         <v>4528617.79</v>
       </c>
     </row>
-    <row customFormat="1" r="134" s="9">
+    <row customFormat="1" outlineLevel="1" r="134" s="9">
       <c r="A134" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13820,7 +13820,7 @@
         <v>170059.57</v>
       </c>
     </row>
-    <row customFormat="1" r="135" s="9">
+    <row customFormat="1" outlineLevel="1" r="135" s="9">
       <c r="A135" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13906,7 +13906,7 @@
         <v>1241107.22</v>
       </c>
     </row>
-    <row customFormat="1" r="136" s="9">
+    <row customFormat="1" outlineLevel="1" r="136" s="9">
       <c r="A136" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -13992,7 +13992,7 @@
         <v>1335146.35</v>
       </c>
     </row>
-    <row customFormat="1" r="137" s="9">
+    <row customFormat="1" outlineLevel="1" r="137" s="9">
       <c r="A137" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14070,7 +14070,7 @@
         <v>198523.97</v>
       </c>
     </row>
-    <row customFormat="1" r="138" s="9">
+    <row customFormat="1" outlineLevel="1" r="138" s="9">
       <c r="A138" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14154,7 +14154,7 @@
         <v>20165008.09</v>
       </c>
     </row>
-    <row customFormat="1" r="139" s="9">
+    <row customFormat="1" outlineLevel="1" r="139" s="9">
       <c r="A139" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14232,7 +14232,7 @@
         <v>-176974.58</v>
       </c>
     </row>
-    <row customFormat="1" r="140" s="9">
+    <row customFormat="1" outlineLevel="1" r="140" s="9">
       <c r="A140" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14318,7 +14318,7 @@
         <v>988559.54</v>
       </c>
     </row>
-    <row customFormat="1" r="141" s="9">
+    <row customFormat="1" outlineLevel="1" r="141" s="9">
       <c r="A141" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14404,7 +14404,7 @@
         <v>219765.68</v>
       </c>
     </row>
-    <row customFormat="1" r="142" s="9">
+    <row customFormat="1" outlineLevel="1" r="142" s="9">
       <c r="A142" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14490,7 +14490,7 @@
         <v>-51000</v>
       </c>
     </row>
-    <row customFormat="1" r="143" s="9">
+    <row customFormat="1" outlineLevel="1" r="143" s="9">
       <c r="A143" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14576,7 +14576,7 @@
         <v>3286.77</v>
       </c>
     </row>
-    <row customFormat="1" r="144" s="9">
+    <row customFormat="1" outlineLevel="1" r="144" s="9">
       <c r="A144" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14662,7 +14662,7 @@
         <v>27972787.25</v>
       </c>
     </row>
-    <row customFormat="1" r="145" s="9">
+    <row customFormat="1" outlineLevel="1" r="145" s="9">
       <c r="A145" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14728,7 +14728,7 @@
         <v>8154.92</v>
       </c>
     </row>
-    <row customFormat="1" r="146" s="9">
+    <row customFormat="1" outlineLevel="1" r="146" s="9">
       <c r="A146" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14812,7 +14812,7 @@
         <v>20867.74</v>
       </c>
     </row>
-    <row customFormat="1" r="147" s="9">
+    <row customFormat="1" outlineLevel="1" r="147" s="9">
       <c r="A147" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14892,7 +14892,7 @@
         <v>289.56</v>
       </c>
     </row>
-    <row customFormat="1" r="148" s="9">
+    <row customFormat="1" outlineLevel="1" r="148" s="9">
       <c r="A148" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -14978,7 +14978,7 @@
         <v>315015.45</v>
       </c>
     </row>
-    <row customFormat="1" r="149" s="9">
+    <row customFormat="1" outlineLevel="1" r="149" s="9">
       <c r="A149" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15064,7 +15064,7 @@
         <v>603616.97</v>
       </c>
     </row>
-    <row customFormat="1" r="150" s="9">
+    <row customFormat="1" outlineLevel="1" r="150" s="9">
       <c r="A150" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15130,7 +15130,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="151">
+    <row outlineLevel="1" r="151">
       <c r="A151" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15207,7 +15207,7 @@
         <v>94725.32000000001</v>
       </c>
     </row>
-    <row r="152">
+    <row outlineLevel="1" r="152">
       <c r="A152" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15290,7 +15290,7 @@
         <v>787355.16</v>
       </c>
     </row>
-    <row r="153">
+    <row outlineLevel="1" r="153">
       <c r="A153" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15375,7 +15375,7 @@
         <v>13300</v>
       </c>
     </row>
-    <row r="154">
+    <row outlineLevel="1" r="154">
       <c r="A154" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15440,7 +15440,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="155">
+    <row outlineLevel="1" r="155">
       <c r="A155" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156">
+    <row outlineLevel="1" r="156">
       <c r="A156" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15586,7 +15586,7 @@
         <v>-29804.03</v>
       </c>
     </row>
-    <row r="157">
+    <row outlineLevel="1" r="157">
       <c r="A157" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158">
+    <row outlineLevel="1" r="158">
       <c r="A158" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159">
+    <row outlineLevel="1" r="159">
       <c r="A159" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15825,7 +15825,7 @@
         <v>-44419.85</v>
       </c>
     </row>
-    <row r="160">
+    <row outlineLevel="1" r="160">
       <c r="A160" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15902,7 +15902,7 @@
         <v>357500</v>
       </c>
     </row>
-    <row r="161">
+    <row outlineLevel="1" r="161">
       <c r="A161" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
+    <row outlineLevel="1" r="162">
       <c r="A162" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16036,7 +16036,7 @@
         <v>28459.36</v>
       </c>
     </row>
-    <row r="163">
+    <row outlineLevel="1" r="163">
       <c r="A163" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16121,7 +16121,7 @@
         <v>1274805.36</v>
       </c>
     </row>
-    <row r="164">
+    <row outlineLevel="1" r="164">
       <c r="A164" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16202,7 +16202,7 @@
         <v>-2898.32</v>
       </c>
     </row>
-    <row r="165">
+    <row outlineLevel="1" r="165">
       <c r="A165" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16287,7 +16287,7 @@
         <v>-3080000</v>
       </c>
     </row>
-    <row r="166">
+    <row outlineLevel="1" r="166">
       <c r="A166" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167">
+    <row outlineLevel="1" r="167">
       <c r="A167" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168">
+    <row outlineLevel="1" r="168">
       <c r="A168" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
+    <row outlineLevel="1" r="169">
       <c r="A169" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16621,7 +16621,7 @@
         <v>277627.12</v>
       </c>
     </row>
-    <row r="170">
+    <row outlineLevel="1" r="170">
       <c r="A170" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16706,7 +16706,7 @@
         <v>31430.08</v>
       </c>
     </row>
-    <row r="171">
+    <row outlineLevel="1" r="171">
       <c r="A171" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16791,7 +16791,7 @@
         <v>30640.63</v>
       </c>
     </row>
-    <row r="172">
+    <row outlineLevel="1" r="172">
       <c r="A172" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16856,7 +16856,7 @@
         <v>16158.76</v>
       </c>
     </row>
-    <row r="173">
+    <row outlineLevel="1" r="173">
       <c r="A173" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -16937,7 +16937,7 @@
         <v>46271.2</v>
       </c>
     </row>
-    <row r="174">
+    <row outlineLevel="1" r="174">
       <c r="A174" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175">
+    <row outlineLevel="1" r="175">
       <c r="A175" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17091,7 +17091,7 @@
         <v>24785.57</v>
       </c>
     </row>
-    <row r="176">
+    <row outlineLevel="1" r="176">
       <c r="A176" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17168,7 +17168,7 @@
         <v>12402.97</v>
       </c>
     </row>
-    <row r="177">
+    <row outlineLevel="1" r="177">
       <c r="A177" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17237,7 +17237,7 @@
         <v>-54208.16</v>
       </c>
     </row>
-    <row r="178">
+    <row outlineLevel="1" r="178">
       <c r="A178" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17322,7 +17322,7 @@
         <v>-82500</v>
       </c>
     </row>
-    <row r="179">
+    <row outlineLevel="1" r="179">
       <c r="A179" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17387,7 +17387,7 @@
         <v>49437</v>
       </c>
     </row>
-    <row r="180">
+    <row outlineLevel="1" r="180">
       <c r="A180" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17472,7 +17472,7 @@
         <v>84254.92999999999</v>
       </c>
     </row>
-    <row r="181">
+    <row outlineLevel="1" r="181">
       <c r="A181" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17557,7 +17557,7 @@
         <v>57440.64</v>
       </c>
     </row>
-    <row r="182">
+    <row outlineLevel="1" r="182">
       <c r="A182" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17636,7 +17636,7 @@
         <v>107696.32</v>
       </c>
     </row>
-    <row r="183">
+    <row outlineLevel="1" r="183">
       <c r="A183" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17717,7 +17717,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="184">
+    <row outlineLevel="1" r="184">
       <c r="A184" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
+    <row outlineLevel="1" r="185">
       <c r="A185" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17881,7 +17881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186">
+    <row outlineLevel="1" r="186">
       <c r="A186" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -17966,7 +17966,7 @@
         <v>1381.71</v>
       </c>
     </row>
-    <row r="187">
+    <row outlineLevel="1" r="187">
       <c r="A187" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188">
+    <row outlineLevel="1" r="188">
       <c r="A188" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18136,7 +18136,7 @@
         <v>68303.34</v>
       </c>
     </row>
-    <row r="189">
+    <row outlineLevel="1" r="189">
       <c r="A189" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18221,7 +18221,7 @@
         <v>32244.43</v>
       </c>
     </row>
-    <row r="190">
+    <row outlineLevel="1" r="190">
       <c r="A190" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18306,7 +18306,7 @@
         <v>1231.09</v>
       </c>
     </row>
-    <row r="191">
+    <row outlineLevel="1" r="191">
       <c r="A191" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18383,7 +18383,7 @@
         <v>35.91</v>
       </c>
     </row>
-    <row r="192">
+    <row outlineLevel="1" r="192">
       <c r="A192" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18466,7 +18466,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="193">
+    <row outlineLevel="1" r="193">
       <c r="A193" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18535,7 +18535,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="194">
+    <row outlineLevel="1" r="194">
       <c r="A194" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18612,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195">
+    <row outlineLevel="1" r="195">
       <c r="A195" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18697,7 +18697,7 @@
         <v>7853.05</v>
       </c>
     </row>
-    <row r="196">
+    <row outlineLevel="1" r="196">
       <c r="A196" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18768,7 +18768,7 @@
         <v>10666.66</v>
       </c>
     </row>
-    <row r="197">
+    <row outlineLevel="1" r="197">
       <c r="A197" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18837,7 +18837,7 @@
         <v>1830.51</v>
       </c>
     </row>
-    <row r="198">
+    <row outlineLevel="1" r="198">
       <c r="A198" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18902,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199">
+    <row outlineLevel="1" r="199">
       <c r="A199" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200">
+    <row outlineLevel="1" r="200">
       <c r="A200" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19050,7 +19050,7 @@
         <v>119200.39</v>
       </c>
     </row>
-    <row r="201">
+    <row outlineLevel="1" r="201">
       <c r="A201" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19123,7 +19123,7 @@
         <v>44128.5</v>
       </c>
     </row>
-    <row r="202">
+    <row outlineLevel="1" r="202">
       <c r="A202" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19192,7 +19192,7 @@
         <v>14623</v>
       </c>
     </row>
-    <row r="203">
+    <row outlineLevel="1" r="203">
       <c r="A203" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19269,7 +19269,7 @@
         <v>145668</v>
       </c>
     </row>
-    <row r="204">
+    <row outlineLevel="1" r="204">
       <c r="A204" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19348,7 +19348,7 @@
         <v>1358.37</v>
       </c>
     </row>
-    <row r="205">
+    <row outlineLevel="1" r="205">
       <c r="A205" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19413,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206">
+    <row outlineLevel="1" r="206">
       <c r="A206" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19484,7 +19484,7 @@
         <v>5829.1</v>
       </c>
     </row>
-    <row r="207">
+    <row outlineLevel="1" r="207">
       <c r="A207" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row outlineLevel="1" r="208">
       <c r="A208" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19636,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209">
+    <row outlineLevel="1" r="209">
       <c r="A209" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19711,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210">
+    <row outlineLevel="1" r="210">
       <c r="A210" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19780,7 +19780,7 @@
         <v>-12706.78</v>
       </c>
     </row>
-    <row r="211">
+    <row outlineLevel="1" r="211">
       <c r="A211" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19855,7 +19855,7 @@
         <v>114040</v>
       </c>
     </row>
-    <row r="212">
+    <row outlineLevel="1" r="212">
       <c r="A212" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -19932,7 +19932,7 @@
         <v>-493964.32</v>
       </c>
     </row>
-    <row r="213">
+    <row outlineLevel="1" r="213">
       <c r="A213" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row outlineLevel="1" r="214">
       <c r="A214" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20080,7 +20080,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="215">
+    <row outlineLevel="1" r="215">
       <c r="A215" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20149,7 +20149,7 @@
         <v>89737.95</v>
       </c>
     </row>
-    <row r="216">
+    <row outlineLevel="1" r="216">
       <c r="A216" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20218,7 +20218,7 @@
         <v>191903.4</v>
       </c>
     </row>
-    <row r="217">
+    <row outlineLevel="1" r="217">
       <c r="A217" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20283,7 +20283,7 @@
         <v>600149.58</v>
       </c>
     </row>
-    <row r="218">
+    <row outlineLevel="1" r="218">
       <c r="A218" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20364,7 +20364,7 @@
         <v>-375000</v>
       </c>
     </row>
-    <row r="219">
+    <row outlineLevel="1" r="219">
       <c r="A219" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20439,7 +20439,7 @@
         <v>19666.67</v>
       </c>
     </row>
-    <row r="220">
+    <row outlineLevel="1" r="220">
       <c r="A220" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20516,7 +20516,7 @@
         <v>-40000</v>
       </c>
     </row>
-    <row r="221">
+    <row outlineLevel="1" r="221">
       <c r="A221" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222">
+    <row outlineLevel="1" r="222">
       <c r="A222" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223">
+    <row outlineLevel="1" r="223">
       <c r="A223" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row outlineLevel="1" r="224">
       <c r="A224" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20810,7 +20810,7 @@
         <v>-32000</v>
       </c>
     </row>
-    <row r="225">
+    <row outlineLevel="1" r="225">
       <c r="A225" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20875,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226">
+    <row outlineLevel="1" r="226">
       <c r="A226" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227">
+    <row outlineLevel="1" r="227">
       <c r="A227" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21025,7 +21025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228">
+    <row outlineLevel="1" r="228">
       <c r="A228" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21100,7 +21100,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="229">
+    <row outlineLevel="1" r="229">
       <c r="A229" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21175,7 +21175,7 @@
         <v>136204.17</v>
       </c>
     </row>
-    <row r="230">
+    <row outlineLevel="1" r="230">
       <c r="A230" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21240,7 +21240,7 @@
         <v>868966.67</v>
       </c>
     </row>
-    <row r="231">
+    <row outlineLevel="1" r="231">
       <c r="A231" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21317,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232">
+    <row outlineLevel="1" r="232">
       <c r="A232" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21392,7 +21392,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="233">
+    <row outlineLevel="1" r="233">
       <c r="A233" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234">
+    <row outlineLevel="1" r="234">
       <c r="A234" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21542,7 +21542,7 @@
         <v>166.67</v>
       </c>
     </row>
-    <row r="235">
+    <row outlineLevel="1" r="235">
       <c r="A235" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21617,7 +21617,7 @@
         <v>-6667.34</v>
       </c>
     </row>
-    <row r="236">
+    <row outlineLevel="1" r="236">
       <c r="A236" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21686,7 +21686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
+    <row outlineLevel="1" r="237">
       <c r="A237" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21761,7 +21761,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="238">
+    <row outlineLevel="1" r="238">
       <c r="A238" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21836,7 +21836,7 @@
         <v>11482.71</v>
       </c>
     </row>
-    <row r="239">
+    <row outlineLevel="1" r="239">
       <c r="A239" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21901,7 +21901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240">
+    <row outlineLevel="1" r="240">
       <c r="A240" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -21976,7 +21976,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="241">
+    <row outlineLevel="1" r="241">
       <c r="A241" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22051,7 +22051,7 @@
         <v>9617.4</v>
       </c>
     </row>
-    <row r="242">
+    <row outlineLevel="1" r="242">
       <c r="A242" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22116,7 +22116,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="243">
+    <row outlineLevel="1" r="243">
       <c r="A243" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22181,7 +22181,7 @@
         <v>4358.47</v>
       </c>
     </row>
-    <row r="244">
+    <row outlineLevel="1" r="244">
       <c r="A244" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22250,7 +22250,7 @@
         <v>771583.33</v>
       </c>
     </row>
-    <row r="245">
+    <row outlineLevel="1" r="245">
       <c r="A245" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22325,7 +22325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246">
+    <row outlineLevel="1" r="246">
       <c r="A246" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22390,7 +22390,7 @@
         <v>33910.8</v>
       </c>
     </row>
-    <row r="247">
+    <row outlineLevel="1" r="247">
       <c r="A247" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22465,7 +22465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248">
+    <row outlineLevel="1" r="248">
       <c r="A248" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22534,7 +22534,7 @@
         <v>16038</v>
       </c>
     </row>
-    <row r="249">
+    <row outlineLevel="1" r="249">
       <c r="A249" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22599,7 +22599,7 @@
         <v>839890</v>
       </c>
     </row>
-    <row r="250">
+    <row outlineLevel="1" r="250">
       <c r="A250" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22674,7 +22674,7 @@
         <v>-2500.01</v>
       </c>
     </row>
-    <row r="251">
+    <row outlineLevel="1" r="251">
       <c r="A251" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22745,7 +22745,7 @@
         <v>-3733.34</v>
       </c>
     </row>
-    <row r="252">
+    <row outlineLevel="1" r="252">
       <c r="A252" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22820,7 +22820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row outlineLevel="1" r="253">
       <c r="A253" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22889,7 +22889,7 @@
         <v>73906.8</v>
       </c>
     </row>
-    <row r="254">
+    <row outlineLevel="1" r="254">
       <c r="A254" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -22958,7 +22958,7 @@
         <v>23421.6</v>
       </c>
     </row>
-    <row r="255">
+    <row outlineLevel="1" r="255">
       <c r="A255" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256">
+    <row outlineLevel="1" r="256">
       <c r="A256" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23102,7 +23102,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="257">
+    <row outlineLevel="1" r="257">
       <c r="A257" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23167,7 +23167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258">
+    <row outlineLevel="1" r="258">
       <c r="A258" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23242,7 +23242,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="259">
+    <row outlineLevel="1" r="259">
       <c r="A259" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23307,7 +23307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260">
+    <row outlineLevel="1" r="260">
       <c r="A260" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row outlineLevel="1" r="261">
       <c r="A261" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23437,7 +23437,7 @@
         <v>51490527.58</v>
       </c>
     </row>
-    <row r="262">
+    <row outlineLevel="1" r="262">
       <c r="A262" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263">
+    <row outlineLevel="1" r="263">
       <c r="A263" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23567,7 +23567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264">
+    <row outlineLevel="1" r="264">
       <c r="A264" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265">
+    <row outlineLevel="1" r="265">
       <c r="A265" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266">
+    <row outlineLevel="1" r="266">
       <c r="A266" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23762,7 +23762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267">
+    <row outlineLevel="1" r="267">
       <c r="A267" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23827,7 +23827,7 @@
         <v>1243202.99</v>
       </c>
     </row>
-    <row r="268">
+    <row outlineLevel="1" r="268">
       <c r="A268" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23911,7 +23911,7 @@
         <v>-57630.18</v>
       </c>
     </row>
-    <row r="269">
+    <row outlineLevel="1" r="269">
       <c r="A269" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -23988,7 +23988,7 @@
         <v>1039336.39</v>
       </c>
     </row>
-    <row r="270">
+    <row outlineLevel="1" r="270">
       <c r="A270" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24062,7 +24062,7 @@
         <v>2218203.39</v>
       </c>
     </row>
-    <row r="271">
+    <row outlineLevel="1" r="271">
       <c r="A271" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24131,7 +24131,7 @@
         <v>1420904.81</v>
       </c>
     </row>
-    <row r="272">
+    <row outlineLevel="1" r="272">
       <c r="A272" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24219,7 +24219,7 @@
         <v>-7838.06</v>
       </c>
     </row>
-    <row r="273">
+    <row outlineLevel="1" r="273">
       <c r="A273" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24296,7 +24296,7 @@
         <v>555833.86</v>
       </c>
     </row>
-    <row r="274">
+    <row outlineLevel="1" r="274">
       <c r="A274" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24386,7 +24386,7 @@
         <v>-25089.28</v>
       </c>
     </row>
-    <row r="275">
+    <row outlineLevel="1" r="275">
       <c r="A275" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24467,7 +24467,7 @@
         <v>619713.53</v>
       </c>
     </row>
-    <row r="276">
+    <row outlineLevel="1" r="276">
       <c r="A276" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24541,7 +24541,7 @@
         <v>361570.86</v>
       </c>
     </row>
-    <row r="277">
+    <row outlineLevel="1" r="277">
       <c r="A277" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24610,7 +24610,7 @@
         <v>122010.88</v>
       </c>
     </row>
-    <row r="278">
+    <row outlineLevel="1" r="278">
       <c r="A278" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24694,7 +24694,7 @@
         <v>494618.45</v>
       </c>
     </row>
-    <row r="279">
+    <row outlineLevel="1" r="279">
       <c r="A279" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24769,7 +24769,7 @@
         <v>733127.27</v>
       </c>
     </row>
-    <row r="280">
+    <row outlineLevel="1" r="280">
       <c r="A280" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24843,7 +24843,7 @@
         <v>1202598.37</v>
       </c>
     </row>
-    <row r="281">
+    <row outlineLevel="1" r="281">
       <c r="A281" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24912,7 +24912,7 @@
         <v>701151.23</v>
       </c>
     </row>
-    <row r="282">
+    <row outlineLevel="1" r="282">
       <c r="A282" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -24996,7 +24996,7 @@
         <v>108141.56</v>
       </c>
     </row>
-    <row r="283">
+    <row outlineLevel="1" r="283">
       <c r="A283" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25065,7 +25065,7 @@
         <v>1772626.03</v>
       </c>
     </row>
-    <row r="284">
+    <row outlineLevel="1" r="284">
       <c r="A284" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25139,7 +25139,7 @@
         <v>19398642.08</v>
       </c>
     </row>
-    <row r="285">
+    <row outlineLevel="1" r="285">
       <c r="A285" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25204,7 +25204,7 @@
         <v>17458777.87</v>
       </c>
     </row>
-    <row r="286">
+    <row outlineLevel="1" r="286">
       <c r="A286" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25284,7 +25284,7 @@
         <v>3522332.76</v>
       </c>
     </row>
-    <row r="287">
+    <row outlineLevel="1" r="287">
       <c r="A287" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25353,7 +25353,7 @@
         <v>2160702.93</v>
       </c>
     </row>
-    <row r="288">
+    <row outlineLevel="1" r="288">
       <c r="A288" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25441,7 +25441,7 @@
         <v>26.19</v>
       </c>
     </row>
-    <row r="289">
+    <row outlineLevel="1" r="289">
       <c r="A289" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25520,7 +25520,7 @@
         <v>1322474.03</v>
       </c>
     </row>
-    <row r="290">
+    <row outlineLevel="1" r="290">
       <c r="A290" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25604,7 +25604,7 @@
         <v>3806935.7</v>
       </c>
     </row>
-    <row r="291">
+    <row outlineLevel="1" r="291">
       <c r="A291" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25677,7 +25677,7 @@
         <v>4113084.5</v>
       </c>
     </row>
-    <row r="292">
+    <row outlineLevel="1" r="292">
       <c r="A292" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25761,7 +25761,7 @@
         <v>1400516.15</v>
       </c>
     </row>
-    <row r="293">
+    <row outlineLevel="1" r="293">
       <c r="A293" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25838,7 +25838,7 @@
         <v>549850.6800000001</v>
       </c>
     </row>
-    <row r="294">
+    <row outlineLevel="1" r="294">
       <c r="A294" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -25926,7 +25926,7 @@
         <v>272499.93</v>
       </c>
     </row>
-    <row r="295">
+    <row outlineLevel="1" r="295">
       <c r="A295" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26007,7 +26007,7 @@
         <v>3913558.11</v>
       </c>
     </row>
-    <row r="296">
+    <row outlineLevel="1" r="296">
       <c r="A296" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26091,7 +26091,7 @@
         <v>143318.07</v>
       </c>
     </row>
-    <row r="297">
+    <row outlineLevel="1" r="297">
       <c r="A297" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26164,7 +26164,7 @@
         <v>1731372.92</v>
       </c>
     </row>
-    <row r="298">
+    <row outlineLevel="1" r="298">
       <c r="A298" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26242,7 +26242,7 @@
         <v>4390616.82</v>
       </c>
     </row>
-    <row r="299">
+    <row outlineLevel="1" r="299">
       <c r="A299" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26311,7 +26311,7 @@
         <v>4044186.35</v>
       </c>
     </row>
-    <row r="300">
+    <row outlineLevel="1" r="300">
       <c r="A300" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26385,7 +26385,7 @@
         <v>3321843.04</v>
       </c>
     </row>
-    <row r="301">
+    <row outlineLevel="1" r="301">
       <c r="A301" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26450,7 +26450,7 @@
         <v>2989658.74</v>
       </c>
     </row>
-    <row r="302">
+    <row outlineLevel="1" r="302">
       <c r="A302" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26532,7 +26532,7 @@
         <v>5339514.91</v>
       </c>
     </row>
-    <row r="303">
+    <row outlineLevel="1" r="303">
       <c r="A303" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26601,7 +26601,7 @@
         <v>5199574.45</v>
       </c>
     </row>
-    <row r="304">
+    <row outlineLevel="1" r="304">
       <c r="A304" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26675,7 +26675,7 @@
         <v>3960932.64</v>
       </c>
     </row>
-    <row r="305">
+    <row outlineLevel="1" r="305">
       <c r="A305" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26744,7 +26744,7 @@
         <v>1161687</v>
       </c>
     </row>
-    <row r="306">
+    <row outlineLevel="1" r="306">
       <c r="A306" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26828,7 +26828,7 @@
         <v>386905.06</v>
       </c>
     </row>
-    <row r="307">
+    <row outlineLevel="1" r="307">
       <c r="A307" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26901,7 +26901,7 @@
         <v>718224.88</v>
       </c>
     </row>
-    <row r="308">
+    <row outlineLevel="1" r="308">
       <c r="A308" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -26981,7 +26981,7 @@
         <v>9435088.51</v>
       </c>
     </row>
-    <row r="309">
+    <row outlineLevel="1" r="309">
       <c r="A309" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27050,7 +27050,7 @@
         <v>820693.1</v>
       </c>
     </row>
-    <row r="310">
+    <row outlineLevel="1" r="310">
       <c r="A310" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27128,7 +27128,7 @@
         <v>111899.29</v>
       </c>
     </row>
-    <row r="311">
+    <row outlineLevel="1" r="311">
       <c r="A311" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27197,7 +27197,7 @@
         <v>158847.69</v>
       </c>
     </row>
-    <row r="312">
+    <row outlineLevel="1" r="312">
       <c r="A312" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27291,7 +27291,7 @@
         <v>260.2</v>
       </c>
     </row>
-    <row r="313">
+    <row outlineLevel="1" r="313">
       <c r="A313" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27374,7 +27374,7 @@
         <v>13158137.06</v>
       </c>
     </row>
-    <row r="314">
+    <row outlineLevel="1" r="314">
       <c r="A314" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27448,7 +27448,7 @@
         <v>5314298.69</v>
       </c>
     </row>
-    <row r="315">
+    <row outlineLevel="1" r="315">
       <c r="A315" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27517,7 +27517,7 @@
         <v>4358062.95</v>
       </c>
     </row>
-    <row r="316">
+    <row outlineLevel="1" r="316">
       <c r="A316" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27603,7 +27603,7 @@
         <v>26839715.74</v>
       </c>
     </row>
-    <row r="317">
+    <row outlineLevel="1" r="317">
       <c r="A317" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27668,7 +27668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318">
+    <row outlineLevel="1" r="318">
       <c r="A318" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27745,7 +27745,7 @@
         <v>20349889.47</v>
       </c>
     </row>
-    <row r="319">
+    <row outlineLevel="1" r="319">
       <c r="A319" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27825,7 +27825,7 @@
         <v>6696565.29</v>
       </c>
     </row>
-    <row r="320">
+    <row outlineLevel="1" r="320">
       <c r="A320" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27894,7 +27894,7 @@
         <v>1985808.37</v>
       </c>
     </row>
-    <row r="321">
+    <row outlineLevel="1" r="321">
       <c r="A321" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -27982,7 +27982,7 @@
         <v>784641.65</v>
       </c>
     </row>
-    <row r="322">
+    <row outlineLevel="1" r="322">
       <c r="A322" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28055,7 +28055,7 @@
         <v>1998024.84</v>
       </c>
     </row>
-    <row r="323">
+    <row outlineLevel="1" r="323">
       <c r="A323" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28139,7 +28139,7 @@
         <v>153404.25</v>
       </c>
     </row>
-    <row r="324">
+    <row outlineLevel="1" r="324">
       <c r="A324" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28214,7 +28214,7 @@
         <v>946988.92</v>
       </c>
     </row>
-    <row r="325">
+    <row outlineLevel="1" r="325">
       <c r="A325" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28298,7 +28298,7 @@
         <v>82778.96000000001</v>
       </c>
     </row>
-    <row r="326">
+    <row outlineLevel="1" r="326">
       <c r="A326" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28373,7 +28373,7 @@
         <v>567501.3</v>
       </c>
     </row>
-    <row r="327">
+    <row outlineLevel="1" r="327">
       <c r="A327" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28453,7 +28453,7 @@
         <v>5972818.46</v>
       </c>
     </row>
-    <row r="328">
+    <row outlineLevel="1" r="328">
       <c r="A328" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28522,7 +28522,7 @@
         <v>5804437.69</v>
       </c>
     </row>
-    <row r="329">
+    <row outlineLevel="1" r="329">
       <c r="A329" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28596,7 +28596,7 @@
         <v>1272006.17</v>
       </c>
     </row>
-    <row r="330">
+    <row outlineLevel="1" r="330">
       <c r="A330" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28661,7 +28661,7 @@
         <v>1144805.56</v>
       </c>
     </row>
-    <row r="331">
+    <row outlineLevel="1" r="331">
       <c r="A331" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28745,7 +28745,7 @@
         <v>5194906.7</v>
       </c>
     </row>
-    <row r="332">
+    <row outlineLevel="1" r="332">
       <c r="A332" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28818,7 +28818,7 @@
         <v>13554994.31</v>
       </c>
     </row>
-    <row r="333">
+    <row outlineLevel="1" r="333">
       <c r="A333" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28892,7 +28892,7 @@
         <v>9586488.529999999</v>
       </c>
     </row>
-    <row r="334">
+    <row outlineLevel="1" r="334">
       <c r="A334" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -28957,7 +28957,7 @@
         <v>8627839.68</v>
       </c>
     </row>
-    <row r="335">
+    <row outlineLevel="1" r="335">
       <c r="A335" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29041,7 +29041,7 @@
         <v>12717600.75</v>
       </c>
     </row>
-    <row r="336">
+    <row outlineLevel="1" r="336">
       <c r="A336" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29114,7 +29114,7 @@
         <v>13349622.18</v>
       </c>
     </row>
-    <row r="337">
+    <row outlineLevel="1" r="337">
       <c r="A337" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29202,7 +29202,7 @@
         <v>380887.18</v>
       </c>
     </row>
-    <row r="338">
+    <row outlineLevel="1" r="338">
       <c r="A338" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29279,7 +29279,7 @@
         <v>1507910.32</v>
       </c>
     </row>
-    <row r="339">
+    <row outlineLevel="1" r="339">
       <c r="A339" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29353,7 +29353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340">
+    <row outlineLevel="1" r="340">
       <c r="A340" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29418,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341">
+    <row outlineLevel="1" r="341">
       <c r="A341" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29492,7 +29492,7 @@
         <v>2126494.11</v>
       </c>
     </row>
-    <row r="342">
+    <row outlineLevel="1" r="342">
       <c r="A342" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29557,7 +29557,7 @@
         <v>1913844.7</v>
       </c>
     </row>
-    <row r="343">
+    <row outlineLevel="1" r="343">
       <c r="A343" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29647,7 +29647,7 @@
         <v>1651292.77</v>
       </c>
     </row>
-    <row r="344">
+    <row outlineLevel="1" r="344">
       <c r="A344" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29728,7 +29728,7 @@
         <v>7656560.04</v>
       </c>
     </row>
-    <row r="345">
+    <row outlineLevel="1" r="345">
       <c r="A345" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29802,7 +29802,7 @@
         <v>17707830.39</v>
       </c>
     </row>
-    <row r="346">
+    <row outlineLevel="1" r="346">
       <c r="A346" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29867,7 +29867,7 @@
         <v>15937047.35</v>
       </c>
     </row>
-    <row r="347">
+    <row outlineLevel="1" r="347">
       <c r="A347" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -29955,7 +29955,7 @@
         <v>624769.27</v>
       </c>
     </row>
-    <row r="348">
+    <row outlineLevel="1" r="348">
       <c r="A348" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30038,7 +30038,7 @@
         <v>2625099.1</v>
       </c>
     </row>
-    <row r="349">
+    <row outlineLevel="1" r="349">
       <c r="A349" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30112,7 +30112,7 @@
         <v>21922589.31</v>
       </c>
     </row>
-    <row r="350">
+    <row outlineLevel="1" r="350">
       <c r="A350" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30177,7 +30177,7 @@
         <v>19730330.38</v>
       </c>
     </row>
-    <row r="351">
+    <row outlineLevel="1" r="351">
       <c r="A351" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30261,7 +30261,7 @@
         <v>1012121.07</v>
       </c>
     </row>
-    <row r="352">
+    <row outlineLevel="1" r="352">
       <c r="A352" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30334,7 +30334,7 @@
         <v>1228600.76</v>
       </c>
     </row>
-    <row r="353">
+    <row outlineLevel="1" r="353">
       <c r="A353" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30418,7 +30418,7 @@
         <v>28947462.88</v>
       </c>
     </row>
-    <row r="354">
+    <row outlineLevel="1" r="354">
       <c r="A354" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30495,7 +30495,7 @@
         <v>26350784.17</v>
       </c>
     </row>
-    <row r="355">
+    <row outlineLevel="1" r="355">
       <c r="A355" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30581,7 +30581,7 @@
         <v>8725648.85</v>
       </c>
     </row>
-    <row r="356">
+    <row outlineLevel="1" r="356">
       <c r="A356" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30654,7 +30654,7 @@
         <v>8807763.15</v>
       </c>
     </row>
-    <row r="357">
+    <row outlineLevel="1" r="357">
       <c r="A357" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30728,7 +30728,7 @@
         <v>17791122.56</v>
       </c>
     </row>
-    <row r="358">
+    <row outlineLevel="1" r="358">
       <c r="A358" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30801,7 +30801,7 @@
         <v>12288987.05</v>
       </c>
     </row>
-    <row r="359">
+    <row outlineLevel="1" r="359">
       <c r="A359" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30875,7 +30875,7 @@
         <v>5391937.76</v>
       </c>
     </row>
-    <row r="360">
+    <row outlineLevel="1" r="360">
       <c r="A360" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -30948,7 +30948,7 @@
         <v>2276928.72</v>
       </c>
     </row>
-    <row r="361">
+    <row outlineLevel="1" r="361">
       <c r="A361" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31022,7 +31022,7 @@
         <v>5963559.39</v>
       </c>
     </row>
-    <row r="362">
+    <row outlineLevel="1" r="362">
       <c r="A362" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31091,7 +31091,7 @@
         <v>969062.29</v>
       </c>
     </row>
-    <row r="363">
+    <row outlineLevel="1" r="363">
       <c r="A363" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31165,7 +31165,7 @@
         <v>5726383.05</v>
       </c>
     </row>
-    <row r="364">
+    <row outlineLevel="1" r="364">
       <c r="A364" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31234,7 +31234,7 @@
         <v>1189484.61</v>
       </c>
     </row>
-    <row r="365">
+    <row outlineLevel="1" r="365">
       <c r="A365" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31318,7 +31318,7 @@
         <v>2777008.04</v>
       </c>
     </row>
-    <row r="366">
+    <row outlineLevel="1" r="366">
       <c r="A366" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31387,7 +31387,7 @@
         <v>3138689.99</v>
       </c>
     </row>
-    <row r="367">
+    <row outlineLevel="1" r="367">
       <c r="A367" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31461,7 +31461,7 @@
         <v>8638580.92</v>
       </c>
     </row>
-    <row r="368">
+    <row outlineLevel="1" r="368">
       <c r="A368" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31530,7 +31530,7 @@
         <v>1845701.5</v>
       </c>
     </row>
-    <row r="369">
+    <row outlineLevel="1" r="369">
       <c r="A369" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31604,7 +31604,7 @@
         <v>10551354.47</v>
       </c>
     </row>
-    <row r="370">
+    <row outlineLevel="1" r="370">
       <c r="A370" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31677,7 +31677,7 @@
         <v>4597607.06</v>
       </c>
     </row>
-    <row r="371">
+    <row outlineLevel="1" r="371">
       <c r="A371" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31773,7 +31773,7 @@
         <v>20672020.79</v>
       </c>
     </row>
-    <row r="372">
+    <row outlineLevel="1" r="372">
       <c r="A372" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31858,7 +31858,7 @@
         <v>35177267.11</v>
       </c>
     </row>
-    <row r="373">
+    <row outlineLevel="1" r="373">
       <c r="A373" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -31938,7 +31938,7 @@
         <v>1869649.03</v>
       </c>
     </row>
-    <row r="374">
+    <row outlineLevel="1" r="374">
       <c r="A374" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32007,7 +32007,7 @@
         <v>2529456.05</v>
       </c>
     </row>
-    <row r="375">
+    <row outlineLevel="1" r="375">
       <c r="A375" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32081,7 +32081,7 @@
         <v>13123583.97</v>
       </c>
     </row>
-    <row r="376">
+    <row outlineLevel="1" r="376">
       <c r="A376" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32146,7 +32146,7 @@
         <v>11811225.57</v>
       </c>
     </row>
-    <row r="377">
+    <row outlineLevel="1" r="377">
       <c r="A377" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32230,7 +32230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378">
+    <row outlineLevel="1" r="378">
       <c r="A378" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32303,7 +32303,7 @@
         <v>319667.72</v>
       </c>
     </row>
-    <row r="379">
+    <row outlineLevel="1" r="379">
       <c r="A379" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32377,7 +32377,7 @@
         <v>2262038.44</v>
       </c>
     </row>
-    <row r="380">
+    <row outlineLevel="1" r="380">
       <c r="A380" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32442,7 +32442,7 @@
         <v>2035834.59</v>
       </c>
     </row>
-    <row r="381">
+    <row outlineLevel="1" r="381">
       <c r="A381" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32516,7 +32516,7 @@
         <v>811600.85</v>
       </c>
     </row>
-    <row r="382">
+    <row outlineLevel="1" r="382">
       <c r="A382" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32585,7 +32585,7 @@
         <v>866483.33</v>
       </c>
     </row>
-    <row r="383">
+    <row outlineLevel="1" r="383">
       <c r="A383" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32669,7 +32669,7 @@
         <v>56002.64</v>
       </c>
     </row>
-    <row r="384">
+    <row outlineLevel="1" r="384">
       <c r="A384" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32742,7 +32742,7 @@
         <v>3155645.83</v>
       </c>
     </row>
-    <row r="385">
+    <row outlineLevel="1" r="385">
       <c r="A385" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32816,7 +32816,7 @@
         <v>1972151.42</v>
       </c>
     </row>
-    <row r="386">
+    <row outlineLevel="1" r="386">
       <c r="A386" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32885,7 +32885,7 @@
         <v>1121952.89</v>
       </c>
     </row>
-    <row r="387">
+    <row outlineLevel="1" r="387">
       <c r="A387" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -32959,7 +32959,7 @@
         <v>1462864.64</v>
       </c>
     </row>
-    <row r="388">
+    <row outlineLevel="1" r="388">
       <c r="A388" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33024,7 +33024,7 @@
         <v>1316578.18</v>
       </c>
     </row>
-    <row r="389">
+    <row outlineLevel="1" r="389">
       <c r="A389" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33108,7 +33108,7 @@
         <v>-28583.54</v>
       </c>
     </row>
-    <row r="390">
+    <row outlineLevel="1" r="390">
       <c r="A390" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33181,7 +33181,7 @@
         <v>599977.4300000001</v>
       </c>
     </row>
-    <row r="391">
+    <row outlineLevel="1" r="391">
       <c r="A391" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33265,7 +33265,7 @@
         <v>-29046.51</v>
       </c>
     </row>
-    <row r="392">
+    <row outlineLevel="1" r="392">
       <c r="A392" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33338,7 +33338,7 @@
         <v>256190.2</v>
       </c>
     </row>
-    <row r="393">
+    <row outlineLevel="1" r="393">
       <c r="A393" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33412,7 +33412,7 @@
         <v>1584451.5</v>
       </c>
     </row>
-    <row r="394">
+    <row outlineLevel="1" r="394">
       <c r="A394" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33481,7 +33481,7 @@
         <v>982910.62</v>
       </c>
     </row>
-    <row r="395">
+    <row outlineLevel="1" r="395">
       <c r="A395" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33555,7 +33555,7 @@
         <v>3247836.54</v>
       </c>
     </row>
-    <row r="396">
+    <row outlineLevel="1" r="396">
       <c r="A396" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33620,7 +33620,7 @@
         <v>2923052.89</v>
       </c>
     </row>
-    <row r="397">
+    <row outlineLevel="1" r="397">
       <c r="A397" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33704,7 +33704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398">
+    <row outlineLevel="1" r="398">
       <c r="A398" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33777,7 +33777,7 @@
         <v>288364.74</v>
       </c>
     </row>
-    <row r="399">
+    <row outlineLevel="1" r="399">
       <c r="A399" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33851,7 +33851,7 @@
         <v>1007022.18</v>
       </c>
     </row>
-    <row r="400">
+    <row outlineLevel="1" r="400">
       <c r="A400" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -33920,7 +33920,7 @@
         <v>-261251.1</v>
       </c>
     </row>
-    <row r="401">
+    <row outlineLevel="1" r="401">
       <c r="A401" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34008,7 +34008,7 @@
         <v>7626.15</v>
       </c>
     </row>
-    <row r="402">
+    <row outlineLevel="1" r="402">
       <c r="A402" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34085,7 +34085,7 @@
         <v>130019.77</v>
       </c>
     </row>
-    <row r="403">
+    <row outlineLevel="1" r="403">
       <c r="A403" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34173,7 +34173,7 @@
         <v>-25248.05</v>
       </c>
     </row>
-    <row r="404">
+    <row outlineLevel="1" r="404">
       <c r="A404" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34250,7 +34250,7 @@
         <v>288740.18</v>
       </c>
     </row>
-    <row r="405">
+    <row outlineLevel="1" r="405">
       <c r="A405" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34330,7 +34330,7 @@
         <v>181919.46</v>
       </c>
     </row>
-    <row r="406">
+    <row outlineLevel="1" r="406">
       <c r="A406" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34399,7 +34399,7 @@
         <v>67255.77</v>
       </c>
     </row>
-    <row r="407">
+    <row outlineLevel="1" r="407">
       <c r="A407" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34485,7 +34485,7 @@
         <v>2466916.17</v>
       </c>
     </row>
-    <row r="408">
+    <row outlineLevel="1" r="408">
       <c r="A408" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34562,7 +34562,7 @@
         <v>2537040.37</v>
       </c>
     </row>
-    <row r="409">
+    <row outlineLevel="1" r="409">
       <c r="A409" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34650,7 +34650,7 @@
         <v>921193.5600000001</v>
       </c>
     </row>
-    <row r="410">
+    <row outlineLevel="1" r="410">
       <c r="A410" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34727,7 +34727,7 @@
         <v>1847819.23</v>
       </c>
     </row>
-    <row r="411">
+    <row outlineLevel="1" r="411">
       <c r="A411" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34801,7 +34801,7 @@
         <v>3188448.98</v>
       </c>
     </row>
-    <row r="412">
+    <row outlineLevel="1" r="412">
       <c r="A412" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34866,7 +34866,7 @@
         <v>2869604.08</v>
       </c>
     </row>
-    <row r="413">
+    <row outlineLevel="1" r="413">
       <c r="A413" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -34940,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414">
+    <row outlineLevel="1" r="414">
       <c r="A414" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35005,7 +35005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415">
+    <row outlineLevel="1" r="415">
       <c r="A415" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35079,7 +35079,7 @@
         <v>6997605.66</v>
       </c>
     </row>
-    <row r="416">
+    <row outlineLevel="1" r="416">
       <c r="A416" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35148,7 +35148,7 @@
         <v>1701300.66</v>
       </c>
     </row>
-    <row r="417">
+    <row outlineLevel="1" r="417">
       <c r="A417" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35232,7 +35232,7 @@
         <v>37511.52</v>
       </c>
     </row>
-    <row r="418">
+    <row outlineLevel="1" r="418">
       <c r="A418" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35305,7 +35305,7 @@
         <v>296595.89</v>
       </c>
     </row>
-    <row r="419">
+    <row outlineLevel="1" r="419">
       <c r="A419" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35379,7 +35379,7 @@
         <v>2927256.92</v>
       </c>
     </row>
-    <row r="420">
+    <row outlineLevel="1" r="420">
       <c r="A420" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35444,7 +35444,7 @@
         <v>2634531.23</v>
       </c>
     </row>
-    <row r="421">
+    <row outlineLevel="1" r="421">
       <c r="A421" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35532,7 +35532,7 @@
         <v>103120228.46</v>
       </c>
     </row>
-    <row r="422">
+    <row outlineLevel="1" r="422">
       <c r="A422" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35609,7 +35609,7 @@
         <v>122174948.24</v>
       </c>
     </row>
-    <row r="423">
+    <row outlineLevel="1" r="423">
       <c r="A423" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35683,7 +35683,7 @@
         <v>8983001.92</v>
       </c>
     </row>
-    <row r="424">
+    <row outlineLevel="1" r="424">
       <c r="A424" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35752,7 +35752,7 @@
         <v>1557372.39</v>
       </c>
     </row>
-    <row r="425">
+    <row outlineLevel="1" r="425">
       <c r="A425" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35834,7 +35834,7 @@
         <v>19264861.65</v>
       </c>
     </row>
-    <row r="426">
+    <row outlineLevel="1" r="426">
       <c r="A426" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35903,7 +35903,7 @@
         <v>1209153.9</v>
       </c>
     </row>
-    <row r="427">
+    <row outlineLevel="1" r="427">
       <c r="A427" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -35968,7 +35968,7 @@
         <v>5474960.35</v>
       </c>
     </row>
-    <row r="428">
+    <row outlineLevel="1" r="428">
       <c r="A428" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36033,7 +36033,7 @@
         <v>4687588.94</v>
       </c>
     </row>
-    <row r="429">
+    <row outlineLevel="1" r="429">
       <c r="A429" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36098,7 +36098,7 @@
         <v>3609819.21</v>
       </c>
     </row>
-    <row r="430">
+    <row outlineLevel="1" r="430">
       <c r="A430" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36163,7 +36163,7 @@
         <v>2160055.53</v>
       </c>
     </row>
-    <row r="431">
+    <row outlineLevel="1" r="431">
       <c r="A431" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36236,7 +36236,7 @@
         <v>4058056.9</v>
       </c>
     </row>
-    <row r="432">
+    <row outlineLevel="1" r="432">
       <c r="A432" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36301,7 +36301,7 @@
         <v>956782.42</v>
       </c>
     </row>
-    <row r="433">
+    <row outlineLevel="1" r="433">
       <c r="A433" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36366,7 +36366,7 @@
         <v>739471.98</v>
       </c>
     </row>
-    <row r="434">
+    <row outlineLevel="1" r="434">
       <c r="A434" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36431,7 +36431,7 @@
         <v>1725434.63</v>
       </c>
     </row>
-    <row r="435">
+    <row outlineLevel="1" r="435">
       <c r="A435" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36496,7 +36496,7 @@
         <v>492981.29</v>
       </c>
     </row>
-    <row r="436">
+    <row outlineLevel="1" r="436">
       <c r="A436" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36582,7 +36582,7 @@
         <v>441294.35</v>
       </c>
     </row>
-    <row r="437">
+    <row outlineLevel="1" r="437">
       <c r="A437" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36655,7 +36655,7 @@
         <v>442892.49</v>
       </c>
     </row>
-    <row r="438">
+    <row outlineLevel="1" r="438">
       <c r="A438" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36743,7 +36743,7 @@
         <v>-14761.46</v>
       </c>
     </row>
-    <row r="439">
+    <row outlineLevel="1" r="439">
       <c r="A439" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36820,7 +36820,7 @@
         <v>336157.37</v>
       </c>
     </row>
-    <row r="440">
+    <row outlineLevel="1" r="440">
       <c r="A440" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36894,7 +36894,7 @@
         <v>1408872.57</v>
       </c>
     </row>
-    <row r="441">
+    <row outlineLevel="1" r="441">
       <c r="A441" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -36959,7 +36959,7 @@
         <v>1267985.32</v>
       </c>
     </row>
-    <row r="442">
+    <row outlineLevel="1" r="442">
       <c r="A442" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37033,7 +37033,7 @@
         <v>936033.05</v>
       </c>
     </row>
-    <row r="443">
+    <row outlineLevel="1" r="443">
       <c r="A443" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37102,7 +37102,7 @@
         <v>151637.35</v>
       </c>
     </row>
-    <row r="444">
+    <row outlineLevel="1" r="444">
       <c r="A444" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37186,7 +37186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445">
+    <row outlineLevel="1" r="445">
       <c r="A445" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37263,7 +37263,7 @@
         <v>400509.11</v>
       </c>
     </row>
-    <row r="446">
+    <row outlineLevel="1" r="446">
       <c r="A446" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37343,7 +37343,7 @@
         <v>13412.15</v>
       </c>
     </row>
-    <row r="447">
+    <row outlineLevel="1" r="447">
       <c r="A447" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37416,7 +37416,7 @@
         <v>340424.55</v>
       </c>
     </row>
-    <row r="448">
+    <row outlineLevel="1" r="448">
       <c r="A448" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37490,7 +37490,7 @@
         <v>1545377.98</v>
       </c>
     </row>
-    <row r="449">
+    <row outlineLevel="1" r="449">
       <c r="A449" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37555,7 +37555,7 @@
         <v>1390840.18</v>
       </c>
     </row>
-    <row r="450">
+    <row outlineLevel="1" r="450">
       <c r="A450" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37629,7 +37629,7 @@
         <v>2801817.52</v>
       </c>
     </row>
-    <row r="451">
+    <row outlineLevel="1" r="451">
       <c r="A451" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37698,7 +37698,7 @@
         <v>2262255.59</v>
       </c>
     </row>
-    <row r="452">
+    <row outlineLevel="1" r="452">
       <c r="A452" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37782,7 +37782,7 @@
         <v>10220.7</v>
       </c>
     </row>
-    <row r="453">
+    <row outlineLevel="1" r="453">
       <c r="A453" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37855,7 +37855,7 @@
         <v>1079524.27</v>
       </c>
     </row>
-    <row r="454">
+    <row outlineLevel="1" r="454">
       <c r="A454" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -37939,7 +37939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455">
+    <row outlineLevel="1" r="455">
       <c r="A455" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38012,7 +38012,7 @@
         <v>-2338184.31</v>
       </c>
     </row>
-    <row r="456">
+    <row outlineLevel="1" r="456">
       <c r="A456" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38077,7 +38077,7 @@
         <v>334838.54</v>
       </c>
     </row>
-    <row r="457">
+    <row outlineLevel="1" r="457">
       <c r="A457" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38152,7 +38152,7 @@
         <v>153637.64</v>
       </c>
     </row>
-    <row r="458">
+    <row outlineLevel="1" r="458">
       <c r="A458" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38225,7 +38225,7 @@
         <v>106779.66</v>
       </c>
     </row>
-    <row r="459">
+    <row outlineLevel="1" r="459">
       <c r="A459" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38299,7 +38299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460">
+    <row outlineLevel="1" r="460">
       <c r="A460" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38364,7 +38364,7 @@
         <v>423728813.56</v>
       </c>
     </row>
-    <row r="461">
+    <row outlineLevel="1" r="461">
       <c r="A461" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38429,7 +38429,7 @@
         <v>711864406.78</v>
       </c>
     </row>
-    <row r="462">
+    <row outlineLevel="1" r="462">
       <c r="A462" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38494,7 +38494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463">
+    <row outlineLevel="1" r="463">
       <c r="A463" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38559,7 +38559,7 @@
         <v>350000000</v>
       </c>
     </row>
-    <row r="464">
+    <row outlineLevel="1" r="464">
       <c r="A464" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38624,7 +38624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465">
+    <row outlineLevel="1" r="465">
       <c r="A465" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38689,7 +38689,7 @@
         <v>637439.3100000001</v>
       </c>
     </row>
-    <row r="466">
+    <row outlineLevel="1" r="466">
       <c r="A466" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38754,7 +38754,7 @@
         <v>437288135.59</v>
       </c>
     </row>
-    <row r="467">
+    <row outlineLevel="1" r="467">
       <c r="A467" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38819,7 +38819,7 @@
         <v>74576271.19</v>
       </c>
     </row>
-    <row r="468">
+    <row outlineLevel="1" r="468">
       <c r="A468" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38884,7 +38884,7 @@
         <v>211864406.78</v>
       </c>
     </row>
-    <row r="469">
+    <row outlineLevel="1" r="469">
       <c r="A469" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -38949,7 +38949,7 @@
         <v>93220338.98</v>
       </c>
     </row>
-    <row r="470">
+    <row outlineLevel="1" r="470">
       <c r="A470" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39014,7 +39014,7 @@
         <v>70925423.73</v>
       </c>
     </row>
-    <row r="471">
+    <row outlineLevel="1" r="471">
       <c r="A471" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39079,7 +39079,7 @@
         <v>423728813.56</v>
       </c>
     </row>
-    <row r="472">
+    <row outlineLevel="1" r="472">
       <c r="A472" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39144,7 +39144,7 @@
         <v>440509726.24</v>
       </c>
     </row>
-    <row r="473">
+    <row outlineLevel="1" r="473">
       <c r="A473" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39209,7 +39209,7 @@
         <v>165254237.29</v>
       </c>
     </row>
-    <row r="474">
+    <row outlineLevel="1" r="474">
       <c r="A474" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39286,7 +39286,7 @@
         <v>605243858.05</v>
       </c>
     </row>
-    <row r="475">
+    <row outlineLevel="1" r="475">
       <c r="A475" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39351,7 +39351,7 @@
         <v>375423728.81</v>
       </c>
     </row>
-    <row r="476">
+    <row outlineLevel="1" r="476">
       <c r="A476" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39416,7 +39416,7 @@
         <v>55940677.97</v>
       </c>
     </row>
-    <row r="477">
+    <row outlineLevel="1" r="477">
       <c r="A477" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39481,7 +39481,7 @@
         <v>99527173.73</v>
       </c>
     </row>
-    <row r="478">
+    <row outlineLevel="1" r="478">
       <c r="A478" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39546,7 +39546,7 @@
         <v>97081355.93000001</v>
       </c>
     </row>
-    <row r="479">
+    <row outlineLevel="1" r="479">
       <c r="A479" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39611,7 +39611,7 @@
         <v>39878813.56</v>
       </c>
     </row>
-    <row r="480">
+    <row outlineLevel="1" r="480">
       <c r="A480" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39676,7 +39676,7 @@
         <v>102588135.59</v>
       </c>
     </row>
-    <row r="481">
+    <row outlineLevel="1" r="481">
       <c r="A481" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39741,7 +39741,7 @@
         <v>92033898.31</v>
       </c>
     </row>
-    <row r="482">
+    <row outlineLevel="1" r="482">
       <c r="A482" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39806,7 +39806,7 @@
         <v>85192372.88</v>
       </c>
     </row>
-    <row r="483">
+    <row outlineLevel="1" r="483">
       <c r="A483" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39871,7 +39871,7 @@
         <v>101490000</v>
       </c>
     </row>
-    <row r="484">
+    <row outlineLevel="1" r="484">
       <c r="A484" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -39936,7 +39936,7 @@
         <v>50976313.56</v>
       </c>
     </row>
-    <row r="485">
+    <row outlineLevel="1" r="485">
       <c r="A485" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40001,7 +40001,7 @@
         <v>137288135.59</v>
       </c>
     </row>
-    <row r="486">
+    <row outlineLevel="1" r="486">
       <c r="A486" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40066,7 +40066,7 @@
         <v>30508474.58</v>
       </c>
     </row>
-    <row r="487">
+    <row outlineLevel="1" r="487">
       <c r="A487" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40131,7 +40131,7 @@
         <v>111016949.15</v>
       </c>
     </row>
-    <row r="488">
+    <row outlineLevel="1" r="488">
       <c r="A488" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40196,7 +40196,7 @@
         <v>62529745.76</v>
       </c>
     </row>
-    <row r="489">
+    <row outlineLevel="1" r="489">
       <c r="A489" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40261,7 +40261,7 @@
         <v>847457627.12</v>
       </c>
     </row>
-    <row r="490">
+    <row outlineLevel="1" r="490">
       <c r="A490" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40326,7 +40326,7 @@
         <v>169491525.42</v>
       </c>
     </row>
-    <row r="491">
+    <row outlineLevel="1" r="491">
       <c r="A491" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40391,7 +40391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492">
+    <row outlineLevel="1" r="492">
       <c r="A492" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40456,7 +40456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493">
+    <row outlineLevel="1" r="493">
       <c r="A493" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40521,7 +40521,7 @@
         <v>137288135.59</v>
       </c>
     </row>
-    <row r="494">
+    <row outlineLevel="1" r="494">
       <c r="A494" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40586,7 +40586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495">
+    <row outlineLevel="1" r="495">
       <c r="A495" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40651,7 +40651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496">
+    <row outlineLevel="1" r="496">
       <c r="A496" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40716,7 +40716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
+    <row outlineLevel="1" r="497">
       <c r="A497" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40781,7 +40781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498">
+    <row outlineLevel="1" r="498">
       <c r="A498" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40846,7 +40846,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="499">
+    <row outlineLevel="1" r="499">
       <c r="A499" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40911,7 +40911,7 @@
         <v>37440.22</v>
       </c>
     </row>
-    <row r="500">
+    <row outlineLevel="1" r="500">
       <c r="A500" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -40976,7 +40976,7 @@
         <v>31732.62</v>
       </c>
     </row>
-    <row r="501">
+    <row outlineLevel="1" r="501">
       <c r="A501" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41041,7 +41041,7 @@
         <v>563283.83</v>
       </c>
     </row>
-    <row r="502">
+    <row outlineLevel="1" r="502">
       <c r="A502" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41106,7 +41106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503">
+    <row outlineLevel="1" r="503">
       <c r="A503" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41171,7 +41171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504">
+    <row outlineLevel="1" r="504">
       <c r="A504" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41236,7 +41236,7 @@
         <v>38967.18</v>
       </c>
     </row>
-    <row r="505">
+    <row outlineLevel="1" r="505">
       <c r="A505" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41301,7 +41301,7 @@
         <v>50784.81</v>
       </c>
     </row>
-    <row r="506">
+    <row outlineLevel="1" r="506">
       <c r="A506" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41366,7 +41366,7 @@
         <v>67786.22</v>
       </c>
     </row>
-    <row r="507">
+    <row outlineLevel="1" r="507">
       <c r="A507" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41431,7 +41431,7 @@
         <v>423897.32</v>
       </c>
     </row>
-    <row r="508">
+    <row outlineLevel="1" r="508">
       <c r="A508" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41496,7 +41496,7 @@
         <v>109372.77</v>
       </c>
     </row>
-    <row r="509">
+    <row outlineLevel="1" r="509">
       <c r="A509" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41561,7 +41561,7 @@
         <v>1330681.9</v>
       </c>
     </row>
-    <row r="510">
+    <row outlineLevel="1" r="510">
       <c r="A510" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41626,7 +41626,7 @@
         <v>37387.77</v>
       </c>
     </row>
-    <row r="511">
+    <row outlineLevel="1" r="511">
       <c r="A511" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41691,7 +41691,7 @@
         <v>57477.34</v>
       </c>
     </row>
-    <row r="512">
+    <row outlineLevel="1" r="512">
       <c r="A512" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41756,7 +41756,7 @@
         <v>1167838.78</v>
       </c>
     </row>
-    <row r="513">
+    <row outlineLevel="1" r="513">
       <c r="A513" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41821,7 +41821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514">
+    <row outlineLevel="1" r="514">
       <c r="A514" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41886,7 +41886,7 @@
         <v>65733.85000000001</v>
       </c>
     </row>
-    <row r="515">
+    <row outlineLevel="1" r="515">
       <c r="A515" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -41951,7 +41951,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="516">
+    <row outlineLevel="1" r="516">
       <c r="A516" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42016,7 +42016,7 @@
         <v>44934.39</v>
       </c>
     </row>
-    <row r="517">
+    <row outlineLevel="1" r="517">
       <c r="A517" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42081,7 +42081,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="518">
+    <row outlineLevel="1" r="518">
       <c r="A518" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42146,7 +42146,7 @@
         <v>138289.84</v>
       </c>
     </row>
-    <row r="519">
+    <row outlineLevel="1" r="519">
       <c r="A519" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42211,7 +42211,7 @@
         <v>107597.02</v>
       </c>
     </row>
-    <row r="520">
+    <row outlineLevel="1" r="520">
       <c r="A520" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42276,7 +42276,7 @@
         <v>16563.17</v>
       </c>
     </row>
-    <row r="521">
+    <row outlineLevel="1" r="521">
       <c r="A521" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42341,7 +42341,7 @@
         <v>83977.25999999999</v>
       </c>
     </row>
-    <row r="522">
+    <row outlineLevel="1" r="522">
       <c r="A522" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42406,7 +42406,7 @@
         <v>126885.88</v>
       </c>
     </row>
-    <row r="523">
+    <row outlineLevel="1" r="523">
       <c r="A523" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42471,7 +42471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524">
+    <row outlineLevel="1" r="524">
       <c r="A524" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42536,7 +42536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525">
+    <row outlineLevel="1" r="525">
       <c r="A525" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42601,7 +42601,7 @@
         <v>79942.82000000001</v>
       </c>
     </row>
-    <row r="526">
+    <row outlineLevel="1" r="526">
       <c r="A526" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42666,7 +42666,7 @@
         <v>256336.44</v>
       </c>
     </row>
-    <row r="527">
+    <row outlineLevel="1" r="527">
       <c r="A527" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42731,7 +42731,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="528">
+    <row outlineLevel="1" r="528">
       <c r="A528" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42796,7 +42796,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="529">
+    <row outlineLevel="1" r="529">
       <c r="A529" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42861,7 +42861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530">
+    <row outlineLevel="1" r="530">
       <c r="A530" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -42926,7 +42926,7 @@
         <v>76309.03999999999</v>
       </c>
     </row>
-    <row r="531">
+    <row outlineLevel="1" r="531">
       <c r="A531" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43006,7 +43006,7 @@
         <v>10900801.34</v>
       </c>
     </row>
-    <row r="532">
+    <row outlineLevel="1" r="532">
       <c r="A532" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43075,7 +43075,7 @@
         <v>22849001.59</v>
       </c>
     </row>
-    <row r="533">
+    <row outlineLevel="1" r="533">
       <c r="A533" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43159,7 +43159,7 @@
         <v>995715.89</v>
       </c>
     </row>
-    <row r="534">
+    <row outlineLevel="1" r="534">
       <c r="A534" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43234,7 +43234,7 @@
         <v>611194.83</v>
       </c>
     </row>
-    <row r="535">
+    <row outlineLevel="1" r="535">
       <c r="A535" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43308,7 +43308,7 @@
         <v>72545081.79000001</v>
       </c>
     </row>
-    <row r="536">
+    <row outlineLevel="1" r="536">
       <c r="A536" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43373,7 +43373,7 @@
         <v>11803774.93</v>
       </c>
     </row>
-    <row r="537">
+    <row outlineLevel="1" r="537">
       <c r="A537" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43453,7 +43453,7 @@
         <v>65833515.7</v>
       </c>
     </row>
-    <row r="538">
+    <row outlineLevel="1" r="538">
       <c r="A538" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43522,7 +43522,7 @@
         <v>5426520.47</v>
       </c>
     </row>
-    <row r="539">
+    <row outlineLevel="1" r="539">
       <c r="A539" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43616,7 +43616,7 @@
         <v>608462348.2</v>
       </c>
     </row>
-    <row r="540">
+    <row outlineLevel="1" r="540">
       <c r="A540" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43701,7 +43701,7 @@
         <v>551618320.95</v>
       </c>
     </row>
-    <row r="541">
+    <row outlineLevel="1" r="541">
       <c r="A541" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43775,7 +43775,7 @@
         <v>37608781.36</v>
       </c>
     </row>
-    <row r="542">
+    <row outlineLevel="1" r="542">
       <c r="A542" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43840,7 +43840,7 @@
         <v>33659859.32</v>
       </c>
     </row>
-    <row r="543">
+    <row outlineLevel="1" r="543">
       <c r="A543" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43920,7 +43920,7 @@
         <v>127763398.44</v>
       </c>
     </row>
-    <row r="544">
+    <row outlineLevel="1" r="544">
       <c r="A544" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -43991,7 +43991,7 @@
         <v>114839354.07</v>
       </c>
     </row>
-    <row r="545">
+    <row outlineLevel="1" r="545">
       <c r="A545" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44067,7 +44067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546">
+    <row outlineLevel="1" r="546">
       <c r="A546" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44132,7 +44132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547">
+    <row outlineLevel="1" r="547">
       <c r="A547" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44220,7 +44220,7 @@
         <v>52769934.87</v>
       </c>
     </row>
-    <row r="548">
+    <row outlineLevel="1" r="548">
       <c r="A548" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44285,7 +44285,7 @@
         <v>892502.6899999999</v>
       </c>
     </row>
-    <row r="549">
+    <row outlineLevel="1" r="549">
       <c r="A549" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44350,7 +44350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550">
+    <row outlineLevel="1" r="550">
       <c r="A550" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44415,7 +44415,7 @@
         <v>222434.29</v>
       </c>
     </row>
-    <row r="551">
+    <row outlineLevel="1" r="551">
       <c r="A551" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44490,7 +44490,7 @@
         <v>744324.58</v>
       </c>
     </row>
-    <row r="552">
+    <row outlineLevel="1" r="552">
       <c r="A552" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44555,7 +44555,7 @@
         <v>78296.82000000001</v>
       </c>
     </row>
-    <row r="553">
+    <row outlineLevel="1" r="553">
       <c r="A553" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44639,7 +44639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554">
+    <row outlineLevel="1" r="554">
       <c r="A554" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44714,7 +44714,7 @@
         <v>80048.92999999999</v>
       </c>
     </row>
-    <row r="555">
+    <row outlineLevel="1" r="555">
       <c r="A555" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44798,7 +44798,7 @@
         <v>54331429.53</v>
       </c>
     </row>
-    <row r="556">
+    <row outlineLevel="1" r="556">
       <c r="A556" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44873,7 +44873,7 @@
         <v>27373852.03</v>
       </c>
     </row>
-    <row r="557">
+    <row outlineLevel="1" r="557">
       <c r="A557" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -44942,7 +44942,7 @@
         <v>1231069.32</v>
       </c>
     </row>
-    <row r="558">
+    <row outlineLevel="1" r="558">
       <c r="A558" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45011,7 +45011,7 @@
         <v>296183.33</v>
       </c>
     </row>
-    <row r="559">
+    <row outlineLevel="1" r="559">
       <c r="A559" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45080,7 +45080,7 @@
         <v>296183.33</v>
       </c>
     </row>
-    <row r="560">
+    <row outlineLevel="1" r="560">
       <c r="A560" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45149,7 +45149,7 @@
         <v>1463956.67</v>
       </c>
     </row>
-    <row r="561">
+    <row outlineLevel="1" r="561">
       <c r="A561" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45218,7 +45218,7 @@
         <v>505363.21</v>
       </c>
     </row>
-    <row r="562">
+    <row outlineLevel="1" r="562">
       <c r="A562" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45287,7 +45287,7 @@
         <v>954635</v>
       </c>
     </row>
-    <row r="563">
+    <row outlineLevel="1" r="563">
       <c r="A563" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45371,7 +45371,7 @@
         <v>43086310.82</v>
       </c>
     </row>
-    <row r="564">
+    <row outlineLevel="1" r="564">
       <c r="A564" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45436,7 +45436,7 @@
         <v>166121.04</v>
       </c>
     </row>
-    <row r="565">
+    <row outlineLevel="1" r="565">
       <c r="A565" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45505,7 +45505,7 @@
         <v>12531810.91</v>
       </c>
     </row>
-    <row r="566">
+    <row outlineLevel="1" r="566">
       <c r="A566" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45574,7 +45574,7 @@
         <v>1408333.34</v>
       </c>
     </row>
-    <row r="567">
+    <row outlineLevel="1" r="567">
       <c r="A567" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45643,7 +45643,7 @@
         <v>1581700</v>
       </c>
     </row>
-    <row r="568">
+    <row outlineLevel="1" r="568">
       <c r="A568" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45712,7 +45712,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="569">
+    <row outlineLevel="1" r="569">
       <c r="A569" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45787,7 +45787,7 @@
         <v>10192759.94</v>
       </c>
     </row>
-    <row r="570">
+    <row outlineLevel="1" r="570">
       <c r="A570" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45861,7 +45861,7 @@
         <v>180472055.18</v>
       </c>
     </row>
-    <row r="571">
+    <row outlineLevel="1" r="571">
       <c r="A571" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45926,7 +45926,7 @@
         <v>243595.14</v>
       </c>
     </row>
-    <row r="572">
+    <row outlineLevel="1" r="572">
       <c r="A572" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -45991,7 +45991,7 @@
         <v>180472055.18</v>
       </c>
     </row>
-    <row r="573">
+    <row outlineLevel="1" r="573">
       <c r="A573" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46056,7 +46056,7 @@
         <v>327314.98</v>
       </c>
     </row>
-    <row r="574">
+    <row outlineLevel="1" r="574">
       <c r="A574" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46121,7 +46121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575">
+    <row outlineLevel="1" r="575">
       <c r="A575" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46186,7 +46186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576">
+    <row outlineLevel="1" r="576">
       <c r="A576" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46260,7 +46260,7 @@
         <v>888541.0600000001</v>
       </c>
     </row>
-    <row r="577">
+    <row outlineLevel="1" r="577">
       <c r="A577" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46325,7 +46325,7 @@
         <v>884033.62</v>
       </c>
     </row>
-    <row r="578">
+    <row outlineLevel="1" r="578">
       <c r="A578" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46399,7 +46399,7 @@
         <v>620350</v>
       </c>
     </row>
-    <row r="579">
+    <row outlineLevel="1" r="579">
       <c r="A579" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
@@ -46464,7 +46464,7 @@
         <v>619706.08</v>
       </c>
     </row>
-    <row r="580">
+    <row outlineLevel="1" r="580">
       <c r="A580" s="11" t="inlineStr">
         <is>
           <t>Центральный офис (ЦО)</t>
